--- a/data/VGPs_NAM/14.xlsx
+++ b/data/VGPs_NAM/14.xlsx
@@ -140,6 +140,18 @@
     <t>VGP_lon</t>
   </si>
   <si>
+    <t>1C143b</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>Dalrymple [1963]</t>
+  </si>
+  <si>
+    <t>Soldier Pass, Calif.-Nev, Basalt flow in Deep Springs Valley. Reversed polarity (ref. 2, unit W35). Age = 11.1 ± 1.0 Ma (ref. 3, sample KA968).</t>
+  </si>
+  <si>
     <t>1C151</t>
   </si>
   <si>
@@ -155,13 +167,66 @@
     <t>Normal polarity. Basalt flow on west side of ‘‘The Monocline’’ north of Silver- peak</t>
   </si>
   <si>
-    <t>3V156</t>
+    <t>1C160b</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>Silver- peak, Nev. Basalt flow underlying unit 1C151 at same locality. Normal polarity.</t>
+  </si>
+  <si>
+    <t>2C508b</t>
+  </si>
+  <si>
+    <t>Bishop, Calif. Basalt of Coyote Flat, polarity (ref. 7, unit W34). Age = 9.9 ± 0.2 Ma (ref. 3, sample KA996).</t>
+  </si>
+  <si>
+    <t>2D010b lightening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basalt flow of Lousetown Formation Normal polarity. Overlie Kate Peak Fm Silberman and McKee, 1972 (12.7 ± 0.2 Ma) and the 2D025 flow overlying the reversed-polarity site 2D018, has yielded an age  of 7.08 ± 0.19 Ma
+        </t>
+  </si>
+  <si>
+    <t>2D018b lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia City, Nev. Lowest flow of the lower basalts of the Lousetown Formation. Reversed polarity. Overlie Kate Peak Fm Silberman and McKee, 1972 (12.7 ± 0.2 Ma) and the 2D025 flow overlying the reversed-polarity site 2D018, has yielded an age  of 7.08 ± 0.19 Ma
+        </t>
+  </si>
+  <si>
+    <t>2D025b lightning</t>
   </si>
   <si>
     <t>Dalrymple et al. [1967]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Virginia City, Nev. Basalt overlying unit 2D018 at same locality. Intermediate polarity. Age = 7.08 ± 0.19 Ma (ref. 7, unit W22)</t>
+  </si>
+  <si>
+    <t>2D031b lightning</t>
+  </si>
+  <si>
+    <t>Virginia City, Nev. Basalt of Lousetown Formation,  Intermediate polarity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D036b </t>
+  </si>
+  <si>
+    <t>Virginia City, Nev. Basalt flow overlying unit 2D031 at same locality. Intermediate polarity.  omitted because  VGP latitude &gt; 55° away from the rotational axis</t>
+  </si>
+  <si>
+    <t>3V129c</t>
+  </si>
+  <si>
+    <t>Omitted due to tectonic rotation, Huntoon Valley, Nev.-Calif. Biotite-augite latite tuff, Age = 9.77 ± 0.38 Ma.(unit W23)</t>
+  </si>
+  <si>
+    <t>3V138c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omitted due to tectonic rotation, Bodie, Calif. Biotite-augite latite tuff,  Reversed polarity. Age = 9.43 ± 0.28 Ma.(unit W24) </t>
+  </si>
+  <si>
+    <t>3V156</t>
   </si>
   <si>
     <t>Bodie, Calif. 1:62500 quadrangle (1958). Biotite-augite latite tuff  Age = 9.42 ± 0.22 Ma. Normal Polarity and age ref. 7, unit W25.</t>
@@ -180,6 +245,12 @@
   </si>
   <si>
     <t>Basalt flow in the Santa Fe Formation, now known as the Paliza Canyon Formation  (13.2-7.4  Ma;  Gardner  et  al.,  1986) defined in (Connell, S.D., 2008.)</t>
+  </si>
+  <si>
+    <t>3X252b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frijoles, N. Mex. Quartz latite flow on north side Santa Clara Canyon, Normal polarity. Age = 5.65 ± 0.82 Ma. </t>
   </si>
   <si>
     <t>3X259</t>
@@ -255,77 +326,6 @@
   </si>
   <si>
     <t>Polvadera Peak, rhyodacite  normal polarity Age = 5.78 ± 0.18 Ma. Polarity and age ref. 7, unit W11</t>
-  </si>
-  <si>
-    <t>1C143b</t>
-  </si>
-  <si>
-    <t>Dalrymple [1963]</t>
-  </si>
-  <si>
-    <t>Soldier Pass, Calif.-Nev, Basalt flow in Deep Springs Valley. Reversed polarity (ref. 2, unit W35). Age = 11.1 ± 1.0 Ma (ref. 3, sample KA968).</t>
-  </si>
-  <si>
-    <t>1C160b</t>
-  </si>
-  <si>
-    <t>Silver- peak, Nev. Basalt flow underlying unit 1C151 at same locality. Normal polarity.</t>
-  </si>
-  <si>
-    <t>2C508b</t>
-  </si>
-  <si>
-    <t>Bishop, Calif. Basalt of Coyote Flat, polarity (ref. 7, unit W34). Age = 9.9 ± 0.2 Ma (ref. 3, sample KA996).</t>
-  </si>
-  <si>
-    <t>2D010b lightening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basalt flow of Lousetown Formation Normal polarity. Overlie Kate Peak Fm Silberman and McKee, 1972 (12.7 ± 0.2 Ma) and the 2D025 flow overlying the reversed-polarity site 2D018, has yielded an age  of 7.08 ± 0.19 Ma
-        </t>
-  </si>
-  <si>
-    <t>2D018b lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia City, Nev. Lowest flow of the lower basalts of the Lousetown Formation. Reversed polarity. Overlie Kate Peak Fm Silberman and McKee, 1972 (12.7 ± 0.2 Ma) and the 2D025 flow overlying the reversed-polarity site 2D018, has yielded an age  of 7.08 ± 0.19 Ma
-        </t>
-  </si>
-  <si>
-    <t>2D025b lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virginia City, Nev. Basalt overlying unit 2D018 at same locality. Intermediate polarity. Age = 7.08 ± 0.19 Ma (ref. 7, unit W22)</t>
-  </si>
-  <si>
-    <t>2D031b lightning</t>
-  </si>
-  <si>
-    <t>Virginia City, Nev. Basalt of Lousetown Formation,  Intermediate polarity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D036b </t>
-  </si>
-  <si>
-    <t>Virginia City, Nev. Basalt flow overlying unit 2D031 at same locality. Intermediate polarity.  omitted because  VGP latitude &gt; 55° away from the rotational axis</t>
-  </si>
-  <si>
-    <t>3X252b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frijoles, N. Mex. Quartz latite flow on north side Santa Clara Canyon, Normal polarity. Age = 5.65 ± 0.82 Ma. </t>
-  </si>
-  <si>
-    <t>3V129c</t>
-  </si>
-  <si>
-    <t>Omitted due to tectonic rotation, Huntoon Valley, Nev.-Calif. Biotite-augite latite tuff, Age = 9.77 ± 0.38 Ma.(unit W23)</t>
-  </si>
-  <si>
-    <t>3V138c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omitted due to tectonic rotation, Bodie, Calif. Biotite-augite latite tuff,  Reversed polarity. Age = 9.43 ± 0.28 Ma.(unit W24) </t>
   </si>
   <si>
     <t>SV4</t>
@@ -549,7 +549,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -564,11 +564,6 @@
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -644,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -663,14 +658,14 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -682,80 +677,77 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -767,17 +759,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1295,7 +1287,7 @@
       <c r="U6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="W6" s="7" t="s">
@@ -1313,48 +1305,55 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="16">
-        <v>37.85</v>
-      </c>
-      <c r="C7" s="16">
-        <v>242.36</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="B7" s="15">
+        <v>37.41</v>
+      </c>
+      <c r="C7" s="15">
+        <v>242.04</v>
+      </c>
+      <c r="D7" s="15">
         <v>5.0</v>
       </c>
-      <c r="E7" s="16">
-        <v>1.9</v>
-      </c>
-      <c r="F7" s="16">
-        <v>76.9</v>
-      </c>
-      <c r="G7" s="16">
-        <v>263.0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>4.7</v>
-      </c>
-      <c r="I7" s="16">
-        <v>62.9</v>
-      </c>
-      <c r="J7" s="16">
-        <v>244.1</v>
-      </c>
-      <c r="K7" s="17"/>
+      <c r="E7" s="15">
+        <v>209.2</v>
+      </c>
+      <c r="F7" s="15">
+        <v>-60.9</v>
+      </c>
+      <c r="G7" s="15">
+        <v>23.0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>16.3</v>
+      </c>
+      <c r="I7" s="15">
+        <v>-67.3</v>
+      </c>
+      <c r="J7" s="15">
+        <v>131.8</v>
+      </c>
+      <c r="K7" s="16"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="10">
-        <v>4.9</v>
-      </c>
-      <c r="R7" s="10">
-        <v>6.3</v>
+      <c r="O7" s="17">
+        <v>11.1</v>
+      </c>
+      <c r="P7" s="18">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="17">
+        <f>11.1-1</f>
+        <v>10.1</v>
+      </c>
+      <c r="R7" s="17">
+        <f>11.1+1</f>
+        <v>12.1</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>36</v>
@@ -1364,16 +1363,16 @@
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="Y7" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -1382,64 +1381,57 @@
       <c r="AD7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="16">
-        <v>38.13</v>
-      </c>
-      <c r="C8" s="16">
-        <v>240.82</v>
-      </c>
-      <c r="D8" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>355.4</v>
-      </c>
-      <c r="F8" s="16">
-        <v>27.5</v>
-      </c>
-      <c r="G8" s="16">
-        <v>239.0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>3.3</v>
-      </c>
-      <c r="I8" s="16">
-        <v>66.1</v>
-      </c>
-      <c r="J8" s="16">
-        <v>71.9</v>
-      </c>
-      <c r="K8" s="17"/>
+      <c r="A8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="15">
+        <v>37.85</v>
+      </c>
+      <c r="C8" s="15">
+        <v>242.36</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="F8" s="15">
+        <v>76.9</v>
+      </c>
+      <c r="G8" s="15">
+        <v>263.0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="I8" s="15">
+        <v>62.9</v>
+      </c>
+      <c r="J8" s="15">
+        <v>244.1</v>
+      </c>
+      <c r="K8" s="16"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="10">
-        <v>9.42</v>
-      </c>
-      <c r="P8" s="10">
-        <f>2*0.22</f>
-        <v>0.44</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="10">
-        <f>9.42-0.22</f>
-        <v>9.2</v>
+        <v>4.9</v>
       </c>
       <c r="R8" s="10">
-        <f>9.42+0.22</f>
-        <v>9.64</v>
+        <v>6.3</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W8" s="13" t="s">
         <v>28</v>
@@ -1456,71 +1448,64 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="16" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="16">
-        <v>39.33</v>
-      </c>
-      <c r="C9" s="16">
-        <v>239.66</v>
-      </c>
-      <c r="D9" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>341.1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>51.5</v>
-      </c>
-      <c r="G9" s="16">
-        <v>296.0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="I9" s="16">
-        <v>73.1</v>
-      </c>
-      <c r="J9" s="16">
-        <v>130.3</v>
-      </c>
-      <c r="K9" s="17"/>
+      <c r="B9" s="15">
+        <v>37.85</v>
+      </c>
+      <c r="C9" s="15">
+        <v>242.36</v>
+      </c>
+      <c r="D9" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>321.9</v>
+      </c>
+      <c r="F9" s="15">
+        <v>58.0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>22.0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>26.8</v>
+      </c>
+      <c r="I9" s="15">
+        <v>60.3</v>
+      </c>
+      <c r="J9" s="15">
+        <v>165.9</v>
+      </c>
+      <c r="K9" s="16"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="10">
-        <v>7.6</v>
-      </c>
-      <c r="P9" s="2">
-        <f>2*0.2</f>
-        <v>0.4</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>7.6-0.2</f>
-        <v>7.4</v>
-      </c>
-      <c r="R9" s="2">
-        <f>7.6+0.2</f>
-        <v>7.8</v>
+      <c r="O9" s="2"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="R9" s="10">
+        <v>6.3</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W9" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X9" s="13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="Y9" s="13" t="s">
         <v>45</v>
@@ -1532,141 +1517,143 @@
       <c r="AD9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="16">
-        <v>36.1</v>
-      </c>
-      <c r="C10" s="16">
-        <v>253.86</v>
-      </c>
-      <c r="D10" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>329.4</v>
-      </c>
-      <c r="F10" s="16">
-        <v>30.3</v>
-      </c>
-      <c r="G10" s="16">
-        <v>88.0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>7.2</v>
-      </c>
-      <c r="I10" s="16">
-        <v>56.4</v>
-      </c>
-      <c r="J10" s="16">
-        <v>135.9</v>
-      </c>
-      <c r="K10" s="17"/>
+      <c r="B10" s="15">
+        <v>37.31</v>
+      </c>
+      <c r="C10" s="15">
+        <v>241.52</v>
+      </c>
+      <c r="D10" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>143.3</v>
+      </c>
+      <c r="F10" s="15">
+        <v>-69.9</v>
+      </c>
+      <c r="G10" s="15">
+        <v>48.0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>11.2</v>
+      </c>
+      <c r="I10" s="15">
+        <v>-60.0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>16.8</v>
+      </c>
+      <c r="K10" s="16"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="10">
-        <v>7.4</v>
+      <c r="O10" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="P10" s="2">
+        <f>2*0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q10" s="2">
+        <f> 9.9-0.2</f>
+        <v>9.7</v>
       </c>
       <c r="R10" s="10">
-        <v>13.2</v>
+        <f>9.9+0.2</f>
+        <v>10.1</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Y10" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="1"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="16">
-        <v>35.99</v>
-      </c>
-      <c r="C11" s="16">
-        <v>253.68</v>
-      </c>
-      <c r="D11" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>349.9</v>
-      </c>
-      <c r="F11" s="16">
-        <v>55.7</v>
-      </c>
-      <c r="G11" s="16">
-        <v>78.0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>6.9</v>
-      </c>
-      <c r="I11" s="16">
-        <v>81.8</v>
-      </c>
-      <c r="J11" s="16">
-        <v>168.1</v>
-      </c>
-      <c r="K11" s="17"/>
+    <row r="11" ht="16.5" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="15">
+        <v>39.48</v>
+      </c>
+      <c r="C11" s="15">
+        <v>240.05</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>45.3</v>
+      </c>
+      <c r="F11" s="15">
+        <v>38.9</v>
+      </c>
+      <c r="G11" s="15">
+        <v>57.0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>12.3</v>
+      </c>
+      <c r="I11" s="15">
+        <v>47.9</v>
+      </c>
+      <c r="J11" s="15">
+        <v>340.8</v>
+      </c>
+      <c r="K11" s="16"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="10">
-        <v>6.87</v>
-      </c>
-      <c r="P11" s="10">
-        <f>2*0.33</f>
-        <v>0.66</v>
-      </c>
-      <c r="Q11" s="10">
-        <f>6.87-0.33</f>
-        <v>6.54</v>
-      </c>
-      <c r="R11" s="10">
-        <f>6.87+0.33</f>
-        <v>7.2</v>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2">
+        <f t="shared" ref="Q11:Q15" si="1">7.08-0.19</f>
+        <v>6.89</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" ref="R11:R12" si="2">12.7+0.2</f>
+        <v>12.9</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W11" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="Y11" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -1674,74 +1661,69 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="16">
-        <v>36.16</v>
-      </c>
-      <c r="C12" s="16">
-        <v>253.58</v>
-      </c>
-      <c r="D12" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>13.2</v>
-      </c>
-      <c r="F12" s="16">
-        <v>77.9</v>
-      </c>
-      <c r="G12" s="16">
-        <v>587.0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>2.3</v>
-      </c>
-      <c r="I12" s="16">
-        <v>58.4</v>
-      </c>
-      <c r="J12" s="16">
-        <v>263.5</v>
-      </c>
-      <c r="K12" s="17"/>
+    <row r="12" ht="17.25" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="15">
+        <v>39.41</v>
+      </c>
+      <c r="C12" s="15">
+        <v>240.37</v>
+      </c>
+      <c r="D12" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>217.9</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-46.4</v>
+      </c>
+      <c r="G12" s="15">
+        <v>21.0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>14.9</v>
+      </c>
+      <c r="I12" s="15">
+        <v>-56.6</v>
+      </c>
+      <c r="J12" s="15">
+        <v>159.2</v>
+      </c>
+      <c r="K12" s="16"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="10">
-        <v>7.63</v>
-      </c>
-      <c r="P12" s="10">
-        <f>2*0.16</f>
-        <v>0.32</v>
-      </c>
-      <c r="Q12" s="10">
-        <f>7.63-0.16</f>
-        <v>7.47</v>
-      </c>
-      <c r="R12" s="10">
-        <f>7.63+0.16</f>
-        <v>7.79</v>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2">
+        <f t="shared" si="1"/>
+        <v>6.89</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="2"/>
+      <c r="U12" s="10"/>
       <c r="V12" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X12" s="13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="Y12" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -1749,71 +1731,71 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="16">
-        <v>36.1</v>
-      </c>
-      <c r="C13" s="16">
-        <v>253.55</v>
-      </c>
-      <c r="D13" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>12.1</v>
-      </c>
-      <c r="F13" s="16">
-        <v>51.9</v>
-      </c>
-      <c r="G13" s="16">
-        <v>377.0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>2.9</v>
-      </c>
-      <c r="I13" s="16">
-        <v>79.4</v>
-      </c>
-      <c r="J13" s="16">
-        <v>359.9</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="2"/>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="15">
+        <v>39.41</v>
+      </c>
+      <c r="C13" s="15">
+        <v>240.37</v>
+      </c>
+      <c r="D13" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>103.0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>-49.8</v>
+      </c>
+      <c r="G13" s="15">
+        <v>26.0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>13.4</v>
+      </c>
+      <c r="I13" s="15">
+        <v>-28.2</v>
+      </c>
+      <c r="J13" s="15">
+        <v>348.3</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="10">
-        <v>5.16</v>
-      </c>
-      <c r="P13" s="10">
-        <f>2*0.13</f>
-        <v>0.26</v>
-      </c>
-      <c r="Q13" s="10">
-        <f>5.16-0.13</f>
-        <v>5.03</v>
-      </c>
-      <c r="R13" s="10">
-        <f>5.16+0.13</f>
-        <v>5.29</v>
+        <v>7.08</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" ref="P13:P15" si="3">2*0.19</f>
+        <v>0.38</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.89</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" ref="R13:R15" si="4">7.08+0.19</f>
+        <v>7.27</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y13" s="13" t="s">
         <v>54</v>
@@ -1824,67 +1806,74 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="16" t="s">
+    <row r="14">
+      <c r="A14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="16">
-        <v>36.04</v>
-      </c>
-      <c r="C14" s="16">
-        <v>253.69</v>
-      </c>
-      <c r="D14" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>46.8</v>
-      </c>
-      <c r="F14" s="16">
-        <v>57.9</v>
-      </c>
-      <c r="G14" s="16">
-        <v>138.0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>4.7</v>
-      </c>
-      <c r="I14" s="16">
-        <v>53.1</v>
-      </c>
-      <c r="J14" s="16">
-        <v>325.3</v>
-      </c>
-      <c r="K14" s="17"/>
+      <c r="B14" s="15">
+        <v>39.39</v>
+      </c>
+      <c r="C14" s="15">
+        <v>240.39</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>45.3</v>
+      </c>
+      <c r="F14" s="15">
+        <v>-70.2</v>
+      </c>
+      <c r="G14" s="15">
+        <v>31.0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>14.0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>-11.3</v>
+      </c>
+      <c r="J14" s="15">
+        <v>35.3</v>
+      </c>
+      <c r="K14" s="16"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="R14" s="10">
-        <v>14.0</v>
+      <c r="O14" s="10">
+        <v>7.08</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="1"/>
+        <v>6.89</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="4"/>
+        <v>7.27</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -1892,74 +1881,74 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="16">
-        <v>36.11</v>
-      </c>
-      <c r="C15" s="16">
-        <v>253.58</v>
-      </c>
-      <c r="D15" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>348.2</v>
-      </c>
-      <c r="F15" s="16">
-        <v>71.3</v>
-      </c>
-      <c r="G15" s="16">
-        <v>99.0</v>
-      </c>
-      <c r="H15" s="16">
-        <v>5.6</v>
-      </c>
-      <c r="I15" s="16">
-        <v>68.7</v>
-      </c>
-      <c r="J15" s="16">
-        <v>235.2</v>
-      </c>
-      <c r="K15" s="17"/>
+    <row r="15">
+      <c r="A15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="15">
+        <v>39.39</v>
+      </c>
+      <c r="C15" s="15">
+        <v>240.39</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>60.5</v>
+      </c>
+      <c r="F15" s="15">
+        <v>-67.5</v>
+      </c>
+      <c r="G15" s="15">
+        <v>111.0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>7.3</v>
+      </c>
+      <c r="I15" s="15">
+        <v>-14.2</v>
+      </c>
+      <c r="J15" s="15">
+        <v>25.4</v>
+      </c>
+      <c r="K15" s="16"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="10">
-        <v>6.82</v>
+      <c r="O15" s="22">
+        <v>7.08</v>
       </c>
       <c r="P15" s="2">
-        <f>2*0.17</f>
-        <v>0.34</v>
+        <f t="shared" si="3"/>
+        <v>0.38</v>
       </c>
       <c r="Q15" s="2">
-        <f>6.82-0.17</f>
-        <v>6.65</v>
+        <f t="shared" si="1"/>
+        <v>6.89</v>
       </c>
       <c r="R15" s="2">
-        <f>6.82+0.17</f>
-        <v>6.99</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T15" s="10" t="s">
+        <f t="shared" si="4"/>
+        <v>7.27</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="22" t="s">
         <v>27</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W15" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y15" s="13" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="Y15" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -1967,224 +1956,212 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="16">
-        <v>35.74</v>
-      </c>
-      <c r="C16" s="16">
-        <v>253.55</v>
-      </c>
-      <c r="D16" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="E16" s="16">
-        <v>207.4</v>
-      </c>
-      <c r="F16" s="16">
-        <v>-37.5</v>
-      </c>
-      <c r="G16" s="16">
-        <v>51.0</v>
-      </c>
-      <c r="H16" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="I16" s="16">
-        <v>-61.9</v>
-      </c>
-      <c r="J16" s="16">
-        <v>187.8</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="10">
-        <v>9.11</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" ref="P16:P18" si="1">2*0.19</f>
-        <v>0.38</v>
-      </c>
-      <c r="Q16" s="10">
-        <f t="shared" ref="Q16:Q17" si="2">9.11-0.19</f>
-        <v>8.92</v>
-      </c>
-      <c r="R16" s="10">
-        <f t="shared" ref="R16:R17" si="3">9.11+0.19</f>
-        <v>9.3</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T16" s="10" t="s">
+    <row r="16">
+      <c r="A16" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="25">
+        <v>38.18</v>
+      </c>
+      <c r="C16" s="15">
+        <v>241.26</v>
+      </c>
+      <c r="D16" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>178.6</v>
+      </c>
+      <c r="F16" s="26">
+        <v>-67.0</v>
+      </c>
+      <c r="G16" s="26">
+        <v>197.0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="I16" s="26">
+        <v>-78.4</v>
+      </c>
+      <c r="J16" s="26">
+        <v>56.6</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="15">
+        <v>9.77</v>
+      </c>
+      <c r="P16" s="15">
+        <f>0.38*2</f>
+        <v>0.76</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="19" t="s">
-        <v>37</v>
+      <c r="U16" s="28"/>
+      <c r="V16" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="W16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X16" s="13" t="s">
+      <c r="X16" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="16">
-        <v>35.74</v>
-      </c>
-      <c r="C17" s="16">
-        <v>253.55</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="B17" s="25">
+        <v>38.1</v>
+      </c>
+      <c r="C17" s="15">
+        <v>240.94</v>
+      </c>
+      <c r="D17" s="26">
         <v>8.0</v>
       </c>
-      <c r="E17" s="16">
-        <v>164.7</v>
-      </c>
-      <c r="F17" s="16">
-        <v>-52.8</v>
-      </c>
-      <c r="G17" s="16">
-        <v>146.0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>4.6</v>
-      </c>
-      <c r="I17" s="16">
-        <v>-77.2</v>
-      </c>
-      <c r="J17" s="16">
-        <v>337.5</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="10">
-        <v>9.11</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="1"/>
-        <v>0.38</v>
-      </c>
-      <c r="Q17" s="10">
-        <f t="shared" si="2"/>
-        <v>8.92</v>
-      </c>
-      <c r="R17" s="10">
-        <f t="shared" si="3"/>
-        <v>9.3</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T17" s="10" t="s">
+      <c r="E17" s="26">
+        <v>161.2</v>
+      </c>
+      <c r="F17" s="26">
+        <v>-56.2</v>
+      </c>
+      <c r="G17" s="26">
+        <v>470.0</v>
+      </c>
+      <c r="H17" s="26">
+        <v>2.6</v>
+      </c>
+      <c r="I17" s="26">
+        <v>-75.0</v>
+      </c>
+      <c r="J17" s="26">
+        <v>331.6</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="15">
+        <v>9.43</v>
+      </c>
+      <c r="P17" s="15">
+        <f>0.28*2</f>
+        <v>0.56</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="19" t="s">
-        <v>37</v>
+      <c r="U17" s="28"/>
+      <c r="V17" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="W17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="16">
-        <v>35.7</v>
-      </c>
-      <c r="C18" s="16">
-        <v>253.6</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="X17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="15">
+        <v>38.13</v>
+      </c>
+      <c r="C18" s="15">
+        <v>240.82</v>
+      </c>
+      <c r="D18" s="15">
         <v>9.0</v>
       </c>
-      <c r="E18" s="16">
-        <v>339.7</v>
-      </c>
-      <c r="F18" s="16">
-        <v>13.4</v>
-      </c>
-      <c r="G18" s="16">
-        <v>678.0</v>
-      </c>
-      <c r="H18" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="I18" s="16">
-        <v>55.6</v>
-      </c>
-      <c r="J18" s="16">
-        <v>111.1</v>
-      </c>
-      <c r="K18" s="17"/>
+      <c r="E18" s="15">
+        <v>355.4</v>
+      </c>
+      <c r="F18" s="15">
+        <v>27.5</v>
+      </c>
+      <c r="G18" s="15">
+        <v>239.0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="I18" s="15">
+        <v>66.1</v>
+      </c>
+      <c r="J18" s="15">
+        <v>71.9</v>
+      </c>
+      <c r="K18" s="16"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="10">
-        <v>9.33</v>
+        <v>9.42</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.38</v>
+        <f>2*0.22</f>
+        <v>0.44</v>
       </c>
       <c r="Q18" s="10">
-        <f>9.33-0.19</f>
-        <v>9.14</v>
+        <f>9.42-0.22</f>
+        <v>9.2</v>
       </c>
       <c r="R18" s="10">
-        <f>9.33+0.19</f>
-        <v>9.52</v>
+        <f>9.42+0.22</f>
+        <v>9.64</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W18" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y18" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -2192,74 +2169,74 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="16">
-        <v>35.76</v>
-      </c>
-      <c r="C19" s="16">
-        <v>253.63</v>
-      </c>
-      <c r="D19" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="F19" s="16">
-        <v>56.6</v>
-      </c>
-      <c r="G19" s="16">
-        <v>211.0</v>
-      </c>
-      <c r="H19" s="16">
-        <v>3.8</v>
-      </c>
-      <c r="I19" s="16">
-        <v>88.2</v>
-      </c>
-      <c r="J19" s="16">
-        <v>293.7</v>
-      </c>
-      <c r="K19" s="17"/>
+    <row r="19">
+      <c r="A19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="15">
+        <v>39.33</v>
+      </c>
+      <c r="C19" s="15">
+        <v>239.66</v>
+      </c>
+      <c r="D19" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>341.1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>51.5</v>
+      </c>
+      <c r="G19" s="15">
+        <v>296.0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="I19" s="15">
+        <v>73.1</v>
+      </c>
+      <c r="J19" s="15">
+        <v>130.3</v>
+      </c>
+      <c r="K19" s="16"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="10">
-        <v>8.69</v>
-      </c>
-      <c r="P19" s="21">
-        <f>0.38*2</f>
-        <v>0.76</v>
-      </c>
-      <c r="Q19" s="10">
-        <f>8.69-0.38</f>
-        <v>8.31</v>
-      </c>
-      <c r="R19" s="10">
-        <f>8.69+0.38</f>
-        <v>9.07</v>
+        <v>7.6</v>
+      </c>
+      <c r="P19" s="2">
+        <f>2*0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>7.6-0.2</f>
+        <v>7.4</v>
+      </c>
+      <c r="R19" s="2">
+        <f>7.6+0.2</f>
+        <v>7.8</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T19" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="Y19" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -2267,67 +2244,67 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="16">
-        <v>36.16</v>
-      </c>
-      <c r="C20" s="16">
-        <v>253.59</v>
-      </c>
-      <c r="D20" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="E20" s="16">
-        <v>340.3</v>
-      </c>
-      <c r="F20" s="16">
-        <v>42.6</v>
-      </c>
-      <c r="G20" s="16">
-        <v>162.0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>4.8</v>
-      </c>
-      <c r="I20" s="16">
-        <v>69.6</v>
-      </c>
-      <c r="J20" s="16">
-        <v>134.9</v>
-      </c>
-      <c r="K20" s="17"/>
+    <row r="20">
+      <c r="A20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="15">
+        <v>36.1</v>
+      </c>
+      <c r="C20" s="15">
+        <v>253.86</v>
+      </c>
+      <c r="D20" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>329.4</v>
+      </c>
+      <c r="F20" s="15">
+        <v>30.3</v>
+      </c>
+      <c r="G20" s="15">
+        <v>88.0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>56.4</v>
+      </c>
+      <c r="J20" s="15">
+        <v>135.9</v>
+      </c>
+      <c r="K20" s="16"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="10">
-        <v>3.0</v>
+        <v>7.4</v>
       </c>
       <c r="R20" s="10">
-        <v>7.0</v>
+        <v>13.2</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T20" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W20" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y20" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -2335,74 +2312,74 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="16">
-        <v>36.1</v>
-      </c>
-      <c r="C21" s="16">
-        <v>253.61</v>
-      </c>
-      <c r="D21" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="E21" s="16">
-        <v>335.3</v>
-      </c>
-      <c r="F21" s="16">
-        <v>22.8</v>
-      </c>
-      <c r="G21" s="16">
-        <v>112.0</v>
-      </c>
-      <c r="H21" s="16">
-        <v>5.3</v>
-      </c>
-      <c r="I21" s="16">
-        <v>57.1</v>
-      </c>
-      <c r="J21" s="16">
-        <v>122.4</v>
-      </c>
-      <c r="K21" s="17"/>
+    <row r="21">
+      <c r="A21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="15">
+        <v>35.98</v>
+      </c>
+      <c r="C21" s="15">
+        <v>253.66</v>
+      </c>
+      <c r="D21" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>8.8</v>
+      </c>
+      <c r="F21" s="15">
+        <v>34.9</v>
+      </c>
+      <c r="G21" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>13.7</v>
+      </c>
+      <c r="I21" s="15">
+        <v>71.5</v>
+      </c>
+      <c r="J21" s="15">
+        <v>46.7</v>
+      </c>
+      <c r="K21" s="16"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="10">
-        <v>5.78</v>
-      </c>
-      <c r="P21" s="10">
-        <f>2*0.18</f>
-        <v>0.36</v>
-      </c>
-      <c r="Q21" s="10">
-        <f>5.78-0.18</f>
-        <v>5.6</v>
-      </c>
-      <c r="R21" s="10">
-        <f>5.78+0.18</f>
-        <v>5.96</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T21" s="10" t="s">
+      <c r="O21" s="22">
+        <v>5.65</v>
+      </c>
+      <c r="P21" s="2">
+        <f> 2*0.82</f>
+        <v>1.64</v>
+      </c>
+      <c r="Q21" s="2">
+        <f> 5.65-0.82</f>
+        <v>4.83</v>
+      </c>
+      <c r="R21" s="22">
+        <f>5.65+0.82</f>
+        <v>6.47</v>
+      </c>
+      <c r="S21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="22" t="s">
         <v>27</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W21" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y21" s="13" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="Y21" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -2411,73 +2388,73 @@
       <c r="AD21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="16">
-        <v>37.41</v>
-      </c>
-      <c r="C22" s="16">
-        <v>242.04</v>
-      </c>
-      <c r="D22" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>209.2</v>
-      </c>
-      <c r="F22" s="16">
-        <v>-60.9</v>
-      </c>
-      <c r="G22" s="16">
-        <v>23.0</v>
-      </c>
-      <c r="H22" s="16">
-        <v>16.3</v>
-      </c>
-      <c r="I22" s="16">
-        <v>-67.3</v>
-      </c>
-      <c r="J22" s="16">
-        <v>131.8</v>
-      </c>
-      <c r="K22" s="17"/>
+      <c r="A22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="15">
+        <v>35.99</v>
+      </c>
+      <c r="C22" s="15">
+        <v>253.68</v>
+      </c>
+      <c r="D22" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="E22" s="15">
+        <v>349.9</v>
+      </c>
+      <c r="F22" s="15">
+        <v>55.7</v>
+      </c>
+      <c r="G22" s="15">
+        <v>78.0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>6.9</v>
+      </c>
+      <c r="I22" s="15">
+        <v>81.8</v>
+      </c>
+      <c r="J22" s="15">
+        <v>168.1</v>
+      </c>
+      <c r="K22" s="16"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="22">
-        <v>11.1</v>
-      </c>
-      <c r="P22" s="23">
-        <f>1*2</f>
-        <v>2</v>
-      </c>
-      <c r="Q22" s="22">
-        <f>11.1-1</f>
-        <v>10.1</v>
-      </c>
-      <c r="R22" s="22">
-        <f>11.1+1</f>
-        <v>12.1</v>
+      <c r="O22" s="10">
+        <v>6.87</v>
+      </c>
+      <c r="P22" s="10">
+        <f>2*0.33</f>
+        <v>0.66</v>
+      </c>
+      <c r="Q22" s="10">
+        <f>6.87-0.33</f>
+        <v>6.54</v>
+      </c>
+      <c r="R22" s="10">
+        <f>6.87+0.33</f>
+        <v>7.2</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W22" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="Y22" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -2486,66 +2463,73 @@
       <c r="AD22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="16">
-        <v>37.85</v>
-      </c>
-      <c r="C23" s="16">
-        <v>242.36</v>
-      </c>
-      <c r="D23" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E23" s="16">
-        <v>321.9</v>
-      </c>
-      <c r="F23" s="16">
-        <v>58.0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>22.0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>26.8</v>
-      </c>
-      <c r="I23" s="16">
-        <v>60.3</v>
-      </c>
-      <c r="J23" s="16">
-        <v>165.9</v>
-      </c>
-      <c r="K23" s="17"/>
+      <c r="A23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="15">
+        <v>36.16</v>
+      </c>
+      <c r="C23" s="15">
+        <v>253.58</v>
+      </c>
+      <c r="D23" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>13.2</v>
+      </c>
+      <c r="F23" s="15">
+        <v>77.9</v>
+      </c>
+      <c r="G23" s="15">
+        <v>587.0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>2.3</v>
+      </c>
+      <c r="I23" s="15">
+        <v>58.4</v>
+      </c>
+      <c r="J23" s="15">
+        <v>263.5</v>
+      </c>
+      <c r="K23" s="16"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="20"/>
+      <c r="O23" s="10">
+        <v>7.63</v>
+      </c>
+      <c r="P23" s="10">
+        <f>2*0.16</f>
+        <v>0.32</v>
+      </c>
       <c r="Q23" s="10">
-        <v>4.9</v>
+        <f>7.63-0.16</f>
+        <v>7.47</v>
       </c>
       <c r="R23" s="10">
-        <v>6.3</v>
+        <f>7.63+0.16</f>
+        <v>7.79</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T23" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W23" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X23" s="13" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="Y23" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -2553,125 +2537,123 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
     </row>
-    <row r="24">
-      <c r="A24" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="16">
-        <v>37.31</v>
-      </c>
-      <c r="C24" s="16">
-        <v>241.52</v>
-      </c>
-      <c r="D24" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="E24" s="16">
-        <v>143.3</v>
-      </c>
-      <c r="F24" s="16">
-        <v>-69.9</v>
-      </c>
-      <c r="G24" s="16">
-        <v>48.0</v>
-      </c>
-      <c r="H24" s="16">
-        <v>11.2</v>
-      </c>
-      <c r="I24" s="16">
-        <v>-60.0</v>
-      </c>
-      <c r="J24" s="16">
-        <v>16.8</v>
-      </c>
-      <c r="K24" s="17"/>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="15">
+        <v>36.1</v>
+      </c>
+      <c r="C24" s="15">
+        <v>253.55</v>
+      </c>
+      <c r="D24" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>12.1</v>
+      </c>
+      <c r="F24" s="15">
+        <v>51.9</v>
+      </c>
+      <c r="G24" s="15">
+        <v>377.0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="I24" s="15">
+        <v>79.4</v>
+      </c>
+      <c r="J24" s="15">
+        <v>359.9</v>
+      </c>
+      <c r="K24" s="16"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="10">
-        <v>9.9</v>
-      </c>
-      <c r="P24" s="2">
-        <f>2*0.2</f>
-        <v>0.4</v>
-      </c>
-      <c r="Q24" s="2">
-        <f> 9.9-0.2</f>
-        <v>9.7</v>
+        <v>5.16</v>
+      </c>
+      <c r="P24" s="10">
+        <f>2*0.13</f>
+        <v>0.26</v>
+      </c>
+      <c r="Q24" s="10">
+        <f>5.16-0.13</f>
+        <v>5.03</v>
       </c>
       <c r="R24" s="10">
-        <f>9.9+0.2</f>
-        <v>10.1</v>
+        <f>5.16+0.13</f>
+        <v>5.29</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W24" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="Y24" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="1"/>
+      <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
     </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="16">
-        <v>39.48</v>
-      </c>
-      <c r="C25" s="16">
-        <v>240.05</v>
-      </c>
-      <c r="D25" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="E25" s="16">
-        <v>45.3</v>
-      </c>
-      <c r="F25" s="16">
-        <v>38.9</v>
-      </c>
-      <c r="G25" s="16">
-        <v>57.0</v>
-      </c>
-      <c r="H25" s="16">
-        <v>12.3</v>
-      </c>
-      <c r="I25" s="16">
-        <v>47.9</v>
-      </c>
-      <c r="J25" s="16">
-        <v>340.8</v>
-      </c>
-      <c r="K25" s="17"/>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="15">
+        <v>36.04</v>
+      </c>
+      <c r="C25" s="15">
+        <v>253.69</v>
+      </c>
+      <c r="D25" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>46.8</v>
+      </c>
+      <c r="F25" s="15">
+        <v>57.9</v>
+      </c>
+      <c r="G25" s="15">
+        <v>138.0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="I25" s="15">
+        <v>53.1</v>
+      </c>
+      <c r="J25" s="15">
+        <v>325.3</v>
+      </c>
+      <c r="K25" s="16"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2">
-        <f t="shared" ref="Q25:Q29" si="4">7.08-0.19</f>
-        <v>6.89</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" ref="R25:R26" si="5">12.7+0.2</f>
-        <v>12.9</v>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="R25" s="10">
+        <v>14.0</v>
       </c>
       <c r="S25" s="10" t="s">
         <v>36</v>
@@ -2681,16 +2663,16 @@
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="Y25" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -2698,50 +2680,55 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
     </row>
-    <row r="26" ht="17.25" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="16">
-        <v>39.41</v>
-      </c>
-      <c r="C26" s="16">
-        <v>240.37</v>
-      </c>
-      <c r="D26" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="E26" s="16">
-        <v>217.9</v>
-      </c>
-      <c r="F26" s="16">
-        <v>-46.4</v>
-      </c>
-      <c r="G26" s="16">
-        <v>21.0</v>
-      </c>
-      <c r="H26" s="16">
-        <v>14.9</v>
-      </c>
-      <c r="I26" s="16">
-        <v>-56.6</v>
-      </c>
-      <c r="J26" s="16">
-        <v>159.2</v>
-      </c>
-      <c r="K26" s="17"/>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="15">
+        <v>36.11</v>
+      </c>
+      <c r="C26" s="15">
+        <v>253.58</v>
+      </c>
+      <c r="D26" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>348.2</v>
+      </c>
+      <c r="F26" s="15">
+        <v>71.3</v>
+      </c>
+      <c r="G26" s="15">
+        <v>99.0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>5.6</v>
+      </c>
+      <c r="I26" s="15">
+        <v>68.7</v>
+      </c>
+      <c r="J26" s="15">
+        <v>235.2</v>
+      </c>
+      <c r="K26" s="16"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="O26" s="10">
+        <v>6.82</v>
+      </c>
+      <c r="P26" s="2">
+        <f>2*0.17</f>
+        <v>0.34</v>
+      </c>
       <c r="Q26" s="2">
-        <f t="shared" si="4"/>
-        <v>6.89</v>
+        <f>6.82-0.17</f>
+        <v>6.65</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="5"/>
-        <v>12.9</v>
+        <f>6.82+0.17</f>
+        <v>6.99</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>36</v>
@@ -2749,18 +2736,18 @@
       <c r="T26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="10"/>
+      <c r="U26" s="2"/>
       <c r="V26" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W26" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X26" s="13" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="Y26" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -2768,74 +2755,74 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
     </row>
-    <row r="27">
-      <c r="A27" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="16">
-        <v>39.41</v>
-      </c>
-      <c r="C27" s="16">
-        <v>240.37</v>
-      </c>
-      <c r="D27" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="E27" s="16">
-        <v>103.0</v>
-      </c>
-      <c r="F27" s="16">
-        <v>-49.8</v>
-      </c>
-      <c r="G27" s="16">
-        <v>26.0</v>
-      </c>
-      <c r="H27" s="16">
-        <v>13.4</v>
-      </c>
-      <c r="I27" s="16">
-        <v>-28.2</v>
-      </c>
-      <c r="J27" s="16">
-        <v>348.3</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="10"/>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="15">
+        <v>35.74</v>
+      </c>
+      <c r="C27" s="15">
+        <v>253.55</v>
+      </c>
+      <c r="D27" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>207.4</v>
+      </c>
+      <c r="F27" s="15">
+        <v>-37.5</v>
+      </c>
+      <c r="G27" s="15">
+        <v>51.0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="I27" s="15">
+        <v>-61.9</v>
+      </c>
+      <c r="J27" s="15">
+        <v>187.8</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="10">
-        <v>7.08</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" ref="P27:P29" si="6">2*0.19</f>
+        <v>9.11</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" ref="P27:P29" si="5">2*0.19</f>
         <v>0.38</v>
       </c>
-      <c r="Q27" s="2">
-        <f t="shared" si="4"/>
-        <v>6.89</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" ref="R27:R29" si="7">7.08+0.19</f>
-        <v>7.27</v>
+      <c r="Q27" s="10">
+        <f t="shared" ref="Q27:Q28" si="6">9.11-0.19</f>
+        <v>8.92</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" ref="R27:R28" si="7">9.11+0.19</f>
+        <v>9.3</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T27" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W27" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X27" s="13" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="Y27" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -2843,74 +2830,74 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
     </row>
-    <row r="28">
-      <c r="A28" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="16">
-        <v>39.39</v>
-      </c>
-      <c r="C28" s="16">
-        <v>240.39</v>
-      </c>
-      <c r="D28" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="E28" s="16">
-        <v>45.3</v>
-      </c>
-      <c r="F28" s="16">
-        <v>-70.2</v>
-      </c>
-      <c r="G28" s="16">
-        <v>31.0</v>
-      </c>
-      <c r="H28" s="16">
-        <v>14.0</v>
-      </c>
-      <c r="I28" s="16">
-        <v>-11.3</v>
-      </c>
-      <c r="J28" s="16">
-        <v>35.3</v>
-      </c>
-      <c r="K28" s="17"/>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="15">
+        <v>35.74</v>
+      </c>
+      <c r="C28" s="15">
+        <v>253.55</v>
+      </c>
+      <c r="D28" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>164.7</v>
+      </c>
+      <c r="F28" s="15">
+        <v>-52.8</v>
+      </c>
+      <c r="G28" s="15">
+        <v>146.0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>4.6</v>
+      </c>
+      <c r="I28" s="15">
+        <v>-77.2</v>
+      </c>
+      <c r="J28" s="15">
+        <v>337.5</v>
+      </c>
+      <c r="K28" s="16"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="10">
-        <v>7.08</v>
-      </c>
-      <c r="P28" s="2">
+        <v>9.11</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.38</v>
+      </c>
+      <c r="Q28" s="10">
         <f t="shared" si="6"/>
-        <v>0.38</v>
-      </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="4"/>
-        <v>6.89</v>
-      </c>
-      <c r="R28" s="2">
+        <v>8.92</v>
+      </c>
+      <c r="R28" s="10">
         <f t="shared" si="7"/>
-        <v>7.27</v>
+        <v>9.3</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W28" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="Y28" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -2918,74 +2905,74 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
     </row>
-    <row r="29">
-      <c r="A29" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="16">
-        <v>39.39</v>
-      </c>
-      <c r="C29" s="16">
-        <v>240.39</v>
-      </c>
-      <c r="D29" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="E29" s="16">
-        <v>60.5</v>
-      </c>
-      <c r="F29" s="16">
-        <v>-67.5</v>
-      </c>
-      <c r="G29" s="16">
-        <v>111.0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>7.3</v>
-      </c>
-      <c r="I29" s="16">
-        <v>-14.2</v>
-      </c>
-      <c r="J29" s="16">
-        <v>25.4</v>
-      </c>
-      <c r="K29" s="17"/>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="15">
+        <v>35.7</v>
+      </c>
+      <c r="C29" s="15">
+        <v>253.6</v>
+      </c>
+      <c r="D29" s="15">
+        <v>9.0</v>
+      </c>
+      <c r="E29" s="15">
+        <v>339.7</v>
+      </c>
+      <c r="F29" s="15">
+        <v>13.4</v>
+      </c>
+      <c r="G29" s="15">
+        <v>678.0</v>
+      </c>
+      <c r="H29" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="I29" s="15">
+        <v>55.6</v>
+      </c>
+      <c r="J29" s="15">
+        <v>111.1</v>
+      </c>
+      <c r="K29" s="16"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="24">
-        <v>7.08</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" si="6"/>
+      <c r="O29" s="10">
+        <v>9.33</v>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" si="5"/>
         <v>0.38</v>
       </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="4"/>
-        <v>6.89</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="7"/>
-        <v>7.27</v>
-      </c>
-      <c r="S29" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="T29" s="24" t="s">
+      <c r="Q29" s="10">
+        <f>9.33-0.19</f>
+        <v>9.14</v>
+      </c>
+      <c r="R29" s="10">
+        <f>9.33+0.19</f>
+        <v>9.52</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y29" s="25" t="s">
-        <v>90</v>
+        <v>53</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -2993,74 +2980,74 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
     </row>
-    <row r="30">
-      <c r="A30" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="16">
-        <v>35.98</v>
-      </c>
-      <c r="C30" s="16">
-        <v>253.66</v>
-      </c>
-      <c r="D30" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="E30" s="16">
-        <v>8.8</v>
-      </c>
-      <c r="F30" s="16">
-        <v>34.9</v>
-      </c>
-      <c r="G30" s="16">
-        <v>20.0</v>
-      </c>
-      <c r="H30" s="16">
-        <v>13.7</v>
-      </c>
-      <c r="I30" s="16">
-        <v>71.5</v>
-      </c>
-      <c r="J30" s="16">
-        <v>46.7</v>
-      </c>
-      <c r="K30" s="17"/>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="15">
+        <v>35.76</v>
+      </c>
+      <c r="C30" s="15">
+        <v>253.63</v>
+      </c>
+      <c r="D30" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="15">
+        <v>56.6</v>
+      </c>
+      <c r="G30" s="15">
+        <v>211.0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="I30" s="15">
+        <v>88.2</v>
+      </c>
+      <c r="J30" s="15">
+        <v>293.7</v>
+      </c>
+      <c r="K30" s="16"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="24">
-        <v>5.65</v>
-      </c>
-      <c r="P30" s="2">
-        <f> 2*0.82</f>
-        <v>1.64</v>
-      </c>
-      <c r="Q30" s="2">
-        <f> 5.65-0.82</f>
-        <v>4.83</v>
-      </c>
-      <c r="R30" s="24">
-        <f>5.65+0.82</f>
-        <v>6.47</v>
-      </c>
-      <c r="S30" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="T30" s="24" t="s">
+      <c r="O30" s="10">
+        <v>8.69</v>
+      </c>
+      <c r="P30" s="30">
+        <f>0.38*2</f>
+        <v>0.76</v>
+      </c>
+      <c r="Q30" s="10">
+        <f>8.69-0.38</f>
+        <v>8.31</v>
+      </c>
+      <c r="R30" s="10">
+        <f>8.69+0.38</f>
+        <v>9.07</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="W30" s="13" t="s">
         <v>28</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y30" s="25" t="s">
-        <v>92</v>
+        <v>53</v>
+      </c>
+      <c r="Y30" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -3068,325 +3055,330 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
     </row>
-    <row r="31">
-      <c r="A31" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="27">
-        <v>38.18</v>
-      </c>
-      <c r="C31" s="16">
-        <v>241.26</v>
-      </c>
-      <c r="D31" s="28">
-        <v>8.0</v>
-      </c>
-      <c r="E31" s="28">
-        <v>178.6</v>
-      </c>
-      <c r="F31" s="28">
-        <v>-67.0</v>
-      </c>
-      <c r="G31" s="28">
-        <v>197.0</v>
-      </c>
-      <c r="H31" s="28">
-        <v>4.0</v>
-      </c>
-      <c r="I31" s="28">
-        <v>-78.4</v>
-      </c>
-      <c r="J31" s="28">
-        <v>56.6</v>
-      </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="16">
-        <v>9.77</v>
-      </c>
-      <c r="P31" s="16">
-        <f>0.38*2</f>
-        <v>0.76</v>
-      </c>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="24" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="15">
+        <v>36.16</v>
+      </c>
+      <c r="C31" s="15">
+        <v>253.59</v>
+      </c>
+      <c r="D31" s="15">
+        <v>7.0</v>
+      </c>
+      <c r="E31" s="15">
+        <v>340.3</v>
+      </c>
+      <c r="F31" s="15">
+        <v>42.6</v>
+      </c>
+      <c r="G31" s="15">
+        <v>162.0</v>
+      </c>
+      <c r="H31" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="I31" s="15">
+        <v>69.6</v>
+      </c>
+      <c r="J31" s="15">
+        <v>134.9</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="R31" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="2"/>
+      <c r="V31" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="T31" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="U31" s="30"/>
-      <c r="V31" s="31" t="s">
-        <v>31</v>
       </c>
       <c r="W31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X31" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y31" s="31" t="s">
+      <c r="X31" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y31" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="26" t="s">
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="27">
-        <v>38.1</v>
-      </c>
-      <c r="C32" s="16">
-        <v>240.94</v>
-      </c>
-      <c r="D32" s="28">
+      <c r="B32" s="15">
+        <v>36.1</v>
+      </c>
+      <c r="C32" s="15">
+        <v>253.61</v>
+      </c>
+      <c r="D32" s="15">
         <v>8.0</v>
       </c>
-      <c r="E32" s="28">
-        <v>161.2</v>
-      </c>
-      <c r="F32" s="28">
-        <v>-56.2</v>
-      </c>
-      <c r="G32" s="28">
-        <v>470.0</v>
-      </c>
-      <c r="H32" s="28">
-        <v>2.6</v>
-      </c>
-      <c r="I32" s="28">
-        <v>-75.0</v>
-      </c>
-      <c r="J32" s="28">
-        <v>331.6</v>
-      </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="16">
-        <v>9.43</v>
-      </c>
-      <c r="P32" s="16">
-        <f>0.28*2</f>
-        <v>0.56</v>
-      </c>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="24" t="s">
+      <c r="E32" s="15">
+        <v>335.3</v>
+      </c>
+      <c r="F32" s="15">
+        <v>22.8</v>
+      </c>
+      <c r="G32" s="15">
+        <v>112.0</v>
+      </c>
+      <c r="H32" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="I32" s="15">
+        <v>57.1</v>
+      </c>
+      <c r="J32" s="15">
+        <v>122.4</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="10">
+        <v>5.78</v>
+      </c>
+      <c r="P32" s="10">
+        <f>2*0.18</f>
+        <v>0.36</v>
+      </c>
+      <c r="Q32" s="10">
+        <f>5.78-0.18</f>
+        <v>5.6</v>
+      </c>
+      <c r="R32" s="10">
+        <f>5.78+0.18</f>
+        <v>5.96</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U32" s="2"/>
+      <c r="V32" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="T32" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="U32" s="30"/>
-      <c r="V32" s="31" t="s">
-        <v>31</v>
       </c>
       <c r="W32" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X32" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y32" s="31" t="s">
+      <c r="X32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y32" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="31">
         <v>38.47</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="31">
         <v>237.3</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="31">
         <v>8.0</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <v>161.8</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="31">
         <v>-45.1</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="31">
         <v>42.0</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="31">
         <v>8.6</v>
       </c>
-      <c r="I33" s="32">
+      <c r="I33" s="31">
         <v>-70.7</v>
       </c>
-      <c r="J33" s="32">
+      <c r="J33" s="31">
         <v>294.9</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="33">
+      <c r="K33" s="16"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="32">
         <v>5.5</v>
       </c>
-      <c r="R33" s="33">
+      <c r="R33" s="32">
         <v>8.0</v>
       </c>
-      <c r="S33" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="T33" s="33" t="s">
+      <c r="S33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="U33" s="34"/>
-      <c r="V33" s="25" t="s">
-        <v>37</v>
+      <c r="U33" s="33"/>
+      <c r="V33" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="W33" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="X33" s="25" t="s">
+      <c r="X33" s="23" t="s">
         <v>99</v>
       </c>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AC33" s="13"/>
-      <c r="AD33" s="20"/>
+      <c r="AD33" s="21"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="31">
         <v>38.5</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="31">
         <v>237.27</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>8.0</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="31">
         <v>203.6</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="31">
         <v>-65.5</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="31">
         <v>262.0</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="31">
         <v>3.4</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="31">
         <v>-70.6</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J34" s="31">
         <v>111.7</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="33">
+      <c r="K34" s="16"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="32">
         <v>5.5</v>
       </c>
-      <c r="R34" s="33">
+      <c r="R34" s="32">
         <v>8.0</v>
       </c>
-      <c r="S34" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="T34" s="33" t="s">
+      <c r="S34" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="U34" s="34"/>
-      <c r="V34" s="25" t="s">
-        <v>37</v>
+      <c r="U34" s="33"/>
+      <c r="V34" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="W34" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="X34" s="25" t="s">
+      <c r="X34" s="23" t="s">
         <v>99</v>
       </c>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AC34" s="13"/>
-      <c r="AD34" s="20"/>
+      <c r="AD34" s="21"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>38.3</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>237.58</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>8.0</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>356.1</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>-4.8</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <v>236.0</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <v>3.6</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="15">
         <v>49.2</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <v>63.5</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="35"/>
-      <c r="N35" s="35"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="34"/>
+      <c r="N35" s="34"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24">
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22">
         <f>7.5-1.8</f>
         <v>5.7</v>
       </c>
-      <c r="R35" s="24">
+      <c r="R35" s="22">
         <f>7.9+0.8</f>
         <v>8.7</v>
       </c>
-      <c r="S35" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="T35" s="24" t="s">
+      <c r="S35" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35" s="22" t="s">
         <v>27</v>
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W35" s="13" t="s">
         <v>98</v>
@@ -3398,62 +3390,62 @@
         <v>103</v>
       </c>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="24"/>
+      <c r="AA35" s="22"/>
       <c r="AB35" s="2"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="20"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="21"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="15">
         <v>38.31</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>237.55</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <v>7.0</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>330.2</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>50.0</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <v>117.0</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <v>5.6</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="15">
         <v>64.5</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="15">
         <v>139.4</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="35"/>
-      <c r="N36" s="35"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="34"/>
+      <c r="N36" s="34"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="24">
+      <c r="P36" s="21"/>
+      <c r="Q36" s="22">
         <v>6.64</v>
       </c>
-      <c r="R36" s="24">
+      <c r="R36" s="22">
         <v>7.9</v>
       </c>
-      <c r="S36" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="T36" s="24" t="s">
+      <c r="S36" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="22" t="s">
         <v>27</v>
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W36" s="13" t="s">
         <v>98</v>
@@ -3465,67 +3457,67 @@
         <v>106</v>
       </c>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="24"/>
+      <c r="AA36" s="22"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="36">
         <v>38.37</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="36">
         <v>-119.78</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="36">
         <v>6.0</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="36">
         <v>351.2</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="36">
         <v>67.3</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="36">
         <v>99.6</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="36">
         <v>6.8</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="36">
         <v>76.8</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J37" s="36">
         <v>214.9</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="36">
         <v>42.6</v>
       </c>
       <c r="L37" s="2"/>
-      <c r="N37" s="37">
+      <c r="N37" s="36">
         <v>10.4</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="30">
         <v>9.137</v>
       </c>
-      <c r="P37" s="24">
+      <c r="P37" s="22">
         <f t="shared" ref="P37:P40" si="8">0.017*2</f>
         <v>0.034</v>
       </c>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="T37" s="24" t="s">
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37" s="22" t="s">
         <v>27</v>
       </c>
       <c r="U37" s="2"/>
       <c r="V37" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W37" s="13" t="s">
         <v>108</v>
@@ -3543,61 +3535,61 @@
       <c r="AD37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="36">
         <v>38.36</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="36">
         <v>-120.01</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="36">
         <v>9.0</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="36">
         <v>338.1</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="36">
         <v>62.6</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="36">
         <v>113.5</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="36">
         <v>4.9</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="36">
         <v>72.6</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="36">
         <v>175.5</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="36">
         <v>57.7</v>
       </c>
       <c r="L38" s="2"/>
-      <c r="N38" s="37">
+      <c r="N38" s="36">
         <v>6.8</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="30">
         <v>9.137</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38" s="22">
         <f t="shared" si="8"/>
         <v>0.034</v>
       </c>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="T38" s="24" t="s">
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T38" s="22" t="s">
         <v>27</v>
       </c>
       <c r="U38" s="2"/>
       <c r="V38" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W38" s="13" t="s">
         <v>108</v>
@@ -3615,54 +3607,54 @@
       <c r="AD38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="36">
         <v>38.36</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="36">
         <v>-120.01</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="36">
         <v>6.0</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="36">
         <v>346.6</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="36">
         <v>54.2</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="36">
         <v>69.4</v>
       </c>
-      <c r="H39" s="37">
+      <c r="H39" s="36">
         <v>9.3</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="36">
         <v>78.7</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="36">
         <v>135.2</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="36">
         <v>47.1</v>
       </c>
       <c r="L39" s="2"/>
-      <c r="N39" s="37">
+      <c r="N39" s="36">
         <v>11.3</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="30">
         <v>9.137</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P39" s="22">
         <f t="shared" si="8"/>
         <v>0.034</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T39" s="10" t="s">
         <v>27</v>
@@ -3677,7 +3669,7 @@
       <c r="X39" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y39" s="25" t="s">
+      <c r="Y39" s="23" t="s">
         <v>113</v>
       </c>
       <c r="Z39" s="2"/>
@@ -3687,54 +3679,54 @@
       <c r="AD39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="36">
         <v>38.37</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="36">
         <v>-119.78</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="36">
         <v>4.0</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="36">
         <v>356.7</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="36">
         <v>57.8</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="36">
         <v>594.4</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="36">
         <v>3.8</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="36">
         <v>87.4</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="36">
         <v>151.9</v>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="36">
         <v>358.0</v>
       </c>
       <c r="L40" s="2"/>
-      <c r="N40" s="37">
+      <c r="N40" s="36">
         <v>4.9</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="30">
         <v>9.137</v>
       </c>
-      <c r="P40" s="24">
+      <c r="P40" s="22">
         <f t="shared" si="8"/>
         <v>0.034</v>
       </c>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T40" s="10" t="s">
         <v>27</v>
@@ -3749,7 +3741,7 @@
       <c r="X40" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y40" s="25" t="s">
+      <c r="Y40" s="23" t="s">
         <v>115</v>
       </c>
       <c r="Z40" s="2"/>
@@ -3759,55 +3751,55 @@
       <c r="AD40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="37">
+      <c r="A41" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="36">
         <v>38.13</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="36">
         <v>-119.18</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="36">
         <v>9.0</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="36">
         <v>355.4</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="36">
         <v>27.5</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="36">
         <v>239.5</v>
       </c>
-      <c r="H41" s="37">
+      <c r="H41" s="36">
         <v>3.3</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="36">
         <v>66.1</v>
       </c>
-      <c r="J41" s="37">
+      <c r="J41" s="36">
         <v>71.9</v>
       </c>
-      <c r="K41" s="37">
+      <c r="K41" s="36">
         <v>438.7</v>
       </c>
       <c r="L41" s="2"/>
-      <c r="N41" s="37">
+      <c r="N41" s="36">
         <v>2.8</v>
       </c>
       <c r="O41" s="10">
         <f t="shared" ref="O41:O42" si="9">9.34</f>
         <v>9.34</v>
       </c>
-      <c r="P41" s="21">
+      <c r="P41" s="30">
         <f t="shared" ref="P41:P42" si="10">0.04*2</f>
         <v>0.08</v>
       </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T41" s="10" t="s">
         <v>27</v>
@@ -3822,7 +3814,7 @@
       <c r="X41" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y41" s="25" t="s">
+      <c r="Y41" s="23" t="s">
         <v>116</v>
       </c>
       <c r="Z41" s="2"/>
@@ -3832,55 +3824,55 @@
       <c r="AD41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="36">
         <v>38.418</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="36">
         <v>-119.368</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="36">
         <v>8.0</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="36">
         <v>0.7</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="36">
         <v>28.3</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="36">
         <v>285.4</v>
       </c>
-      <c r="H42" s="37">
+      <c r="H42" s="36">
         <v>3.3</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="36">
         <v>66.7</v>
       </c>
-      <c r="J42" s="37">
+      <c r="J42" s="36">
         <v>59.0</v>
       </c>
-      <c r="K42" s="37">
+      <c r="K42" s="36">
         <v>364.7</v>
       </c>
       <c r="L42" s="2"/>
-      <c r="N42" s="37">
+      <c r="N42" s="36">
         <v>2.9</v>
       </c>
       <c r="O42" s="10">
         <f t="shared" si="9"/>
         <v>9.34</v>
       </c>
-      <c r="P42" s="21">
+      <c r="P42" s="30">
         <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T42" s="10" t="s">
         <v>27</v>
@@ -3895,7 +3887,7 @@
       <c r="X42" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y42" s="25" t="s">
+      <c r="Y42" s="23" t="s">
         <v>116</v>
       </c>
       <c r="Z42" s="2"/>
@@ -3905,44 +3897,44 @@
       <c r="AD42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="36">
         <v>38.272</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="36">
         <v>-119.288</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="36">
         <v>10.0</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="36">
         <v>9.4</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="36">
         <v>54.0</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="36">
         <v>99.1</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="36">
         <v>4.9</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="36">
         <v>81.5</v>
       </c>
-      <c r="J43" s="37">
+      <c r="J43" s="36">
         <v>354.3</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="36">
         <v>67.7</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="N43" s="37">
+      <c r="N43" s="36">
         <v>5.9</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="30">
         <v>9.4</v>
       </c>
       <c r="P43" s="10">
@@ -3952,7 +3944,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="2"/>
       <c r="S43" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T43" s="10" t="s">
         <v>27</v>
@@ -3967,7 +3959,7 @@
       <c r="X43" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y43" s="25" t="s">
+      <c r="Y43" s="23" t="s">
         <v>119</v>
       </c>
       <c r="Z43" s="2"/>
@@ -3977,44 +3969,44 @@
       <c r="AD43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="36">
         <v>38.383</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="36">
         <v>-119.438</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="36">
         <v>8.0</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="36">
         <v>16.5</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="36">
         <v>48.4</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="36">
         <v>43.1</v>
       </c>
-      <c r="H44" s="37">
+      <c r="H44" s="36">
         <v>8.5</v>
       </c>
-      <c r="I44" s="37">
+      <c r="I44" s="36">
         <v>73.6</v>
       </c>
-      <c r="J44" s="37">
+      <c r="J44" s="36">
         <v>359.1</v>
       </c>
-      <c r="K44" s="37">
+      <c r="K44" s="36">
         <v>35.1</v>
       </c>
       <c r="L44" s="2"/>
-      <c r="N44" s="37">
+      <c r="N44" s="36">
         <v>9.5</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="30">
         <v>9.4</v>
       </c>
       <c r="P44" s="10">
@@ -4024,7 +4016,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="2"/>
       <c r="S44" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T44" s="10" t="s">
         <v>27</v>
@@ -4039,7 +4031,7 @@
       <c r="X44" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y44" s="25" t="s">
+      <c r="Y44" s="23" t="s">
         <v>119</v>
       </c>
       <c r="Z44" s="2"/>
@@ -4049,44 +4041,44 @@
       <c r="AD44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="36">
         <v>38.395</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="36">
         <v>-119.528</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="36">
         <v>6.0</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="36">
         <v>2.9</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="36">
         <v>48.0</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="36">
         <v>137.9</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="36">
         <v>5.7</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="36">
         <v>80.3</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J45" s="36">
         <v>45.3</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="36">
         <v>113.4</v>
       </c>
       <c r="L45" s="2"/>
-      <c r="N45" s="37">
+      <c r="N45" s="36">
         <v>6.3</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="30">
         <v>9.4</v>
       </c>
       <c r="P45" s="10">
@@ -4096,7 +4088,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="2"/>
       <c r="S45" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T45" s="10" t="s">
         <v>27</v>
@@ -4111,7 +4103,7 @@
       <c r="X45" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y45" s="25" t="s">
+      <c r="Y45" s="23" t="s">
         <v>119</v>
       </c>
       <c r="Z45" s="2"/>
@@ -4121,44 +4113,44 @@
       <c r="AD45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="36">
         <v>38.404</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="36">
         <v>-119.401</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="36">
         <v>8.0</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="36">
         <v>5.0</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="36">
         <v>58.7</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="36">
         <v>273.6</v>
       </c>
-      <c r="H46" s="37">
+      <c r="H46" s="36">
         <v>3.4</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="36">
         <v>86.0</v>
       </c>
-      <c r="J46" s="37">
+      <c r="J46" s="36">
         <v>314.3</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="36">
         <v>159.5</v>
       </c>
       <c r="L46" s="2"/>
-      <c r="N46" s="37">
+      <c r="N46" s="36">
         <v>4.4</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="30">
         <v>9.4</v>
       </c>
       <c r="P46" s="10">
@@ -4168,7 +4160,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="2"/>
       <c r="S46" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T46" s="10" t="s">
         <v>27</v>
@@ -4183,7 +4175,7 @@
       <c r="X46" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y46" s="25" t="s">
+      <c r="Y46" s="23" t="s">
         <v>119</v>
       </c>
       <c r="Z46" s="2"/>
@@ -4193,44 +4185,44 @@
       <c r="AD46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="36">
         <v>38.37</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="36">
         <v>-119.78</v>
       </c>
-      <c r="D47" s="37">
+      <c r="D47" s="36">
         <v>6.0</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="36">
         <v>154.2</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="36">
         <v>-62.9</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="36">
         <v>470.5</v>
       </c>
-      <c r="H47" s="37">
+      <c r="H47" s="36">
         <v>3.1</v>
       </c>
-      <c r="I47" s="37">
+      <c r="I47" s="36">
         <v>-69.8</v>
       </c>
-      <c r="J47" s="37">
+      <c r="J47" s="36">
         <v>355.5</v>
       </c>
-      <c r="K47" s="37">
+      <c r="K47" s="36">
         <v>236.5</v>
       </c>
       <c r="L47" s="2"/>
-      <c r="N47" s="37">
+      <c r="N47" s="36">
         <v>4.4</v>
       </c>
-      <c r="O47" s="21"/>
+      <c r="O47" s="30"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10">
         <f t="shared" ref="Q47:Q59" si="12">9.54-0.04*2</f>
@@ -4241,7 +4233,7 @@
         <v>10.5</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T47" s="10" t="s">
         <v>27</v>
@@ -4256,7 +4248,7 @@
       <c r="X47" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y47" s="25" t="s">
+      <c r="Y47" s="23" t="s">
         <v>124</v>
       </c>
       <c r="Z47" s="2"/>
@@ -4266,41 +4258,41 @@
       <c r="AD47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="36">
         <v>38.398</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="36">
         <v>-119.422</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="36">
         <v>9.0</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="36">
         <v>149.6</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="36">
         <v>-64.5</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="36">
         <v>48.2</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="36">
         <v>7.5</v>
       </c>
-      <c r="I48" s="37">
+      <c r="I48" s="36">
         <v>-66.4</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="36">
         <v>359.9</v>
       </c>
-      <c r="K48" s="37">
+      <c r="K48" s="36">
         <v>22.9</v>
       </c>
       <c r="L48" s="2"/>
-      <c r="N48" s="37">
+      <c r="N48" s="36">
         <v>11.0</v>
       </c>
       <c r="O48" s="2"/>
@@ -4314,7 +4306,7 @@
         <v>10.5</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T48" s="10" t="s">
         <v>27</v>
@@ -4329,7 +4321,7 @@
       <c r="X48" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y48" s="25" t="s">
+      <c r="Y48" s="23" t="s">
         <v>126</v>
       </c>
       <c r="Z48" s="10"/>
@@ -4339,41 +4331,41 @@
       <c r="AD48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="36">
         <v>38.267</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="36">
         <v>-119.932</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="36">
         <v>7.0</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="36">
         <v>146.5</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="36">
         <v>-74.8</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="36">
         <v>193.2</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="36">
         <v>4.4</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="36">
         <v>-73.7</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J49" s="36">
         <v>1.1</v>
       </c>
-      <c r="K49" s="37">
+      <c r="K49" s="36">
         <v>94.9</v>
       </c>
       <c r="L49" s="2"/>
-      <c r="N49" s="37">
+      <c r="N49" s="36">
         <v>6.2</v>
       </c>
       <c r="O49" s="2"/>
@@ -4387,7 +4379,7 @@
         <v>10.5</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T49" s="10" t="s">
         <v>27</v>
@@ -4402,7 +4394,7 @@
       <c r="X49" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y49" s="25" t="s">
+      <c r="Y49" s="23" t="s">
         <v>128</v>
       </c>
       <c r="Z49" s="2"/>
@@ -4412,41 +4404,41 @@
       <c r="AD49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="36">
         <v>38.279</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="36">
         <v>-119.898</v>
       </c>
-      <c r="D50" s="37">
+      <c r="D50" s="36">
         <v>9.0</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="36">
         <v>214.9</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="36">
         <v>-64.2</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="36">
         <v>138.5</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="36">
         <v>4.4</v>
       </c>
-      <c r="I50" s="37">
+      <c r="I50" s="36">
         <v>-82.1</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J50" s="36">
         <v>54.1</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="36">
         <v>66.0</v>
       </c>
       <c r="L50" s="2"/>
-      <c r="N50" s="37">
+      <c r="N50" s="36">
         <v>6.4</v>
       </c>
       <c r="O50" s="2"/>
@@ -4460,7 +4452,7 @@
         <v>10.5</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T50" s="10" t="s">
         <v>27</v>
@@ -4475,7 +4467,7 @@
       <c r="X50" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y50" s="25" t="s">
+      <c r="Y50" s="23" t="s">
         <v>128</v>
       </c>
       <c r="Z50" s="2"/>
@@ -4485,41 +4477,41 @@
       <c r="AD50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="36">
         <v>38.407</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="36">
         <v>-119.399</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="36">
         <v>6.0</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="36">
         <v>155.3</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="36">
         <v>-54.5</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="36">
         <v>430.0</v>
       </c>
-      <c r="H51" s="37">
+      <c r="H51" s="36">
         <v>3.2</v>
       </c>
-      <c r="I51" s="37">
+      <c r="I51" s="36">
         <v>-70.0</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="36">
         <v>328.5</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="36">
         <v>289.1</v>
       </c>
       <c r="L51" s="2"/>
-      <c r="N51" s="37">
+      <c r="N51" s="36">
         <v>4.0</v>
       </c>
       <c r="O51" s="2"/>
@@ -4533,7 +4525,7 @@
         <v>10.5</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T51" s="10" t="s">
         <v>27</v>
@@ -4548,7 +4540,7 @@
       <c r="X51" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y51" s="25" t="s">
+      <c r="Y51" s="23" t="s">
         <v>128</v>
       </c>
       <c r="Z51" s="2"/>
@@ -4558,41 +4550,41 @@
       <c r="AD51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="36">
         <v>38.206</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="36">
         <v>-118.95</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="36">
         <v>10.0</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="36">
         <v>182.8</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="36">
         <v>-56.2</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="36">
         <v>52.3</v>
       </c>
-      <c r="H52" s="37">
+      <c r="H52" s="36">
         <v>6.7</v>
       </c>
-      <c r="I52" s="37">
+      <c r="I52" s="36">
         <v>-87.3</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="36">
         <v>183.2</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="36">
         <v>33.2</v>
       </c>
       <c r="L52" s="2"/>
-      <c r="N52" s="37">
+      <c r="N52" s="36">
         <v>8.5</v>
       </c>
       <c r="O52" s="2"/>
@@ -4606,7 +4598,7 @@
         <v>10.5</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T52" s="10" t="s">
         <v>27</v>
@@ -4621,7 +4613,7 @@
       <c r="X52" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y52" s="25" t="s">
+      <c r="Y52" s="23" t="s">
         <v>132</v>
       </c>
       <c r="Z52" s="2"/>
@@ -4631,41 +4623,41 @@
       <c r="AD52" s="2"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="36">
         <v>38.094</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="36">
         <v>-119.07</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="36">
         <v>13.0</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="36">
         <v>166.5</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="36">
         <v>-62.1</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="36">
         <v>91.5</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="36">
         <v>4.4</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="36">
         <v>-78.5</v>
       </c>
-      <c r="J53" s="37">
+      <c r="J53" s="36">
         <v>2.6</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="36">
         <v>47.3</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="N53" s="37">
+      <c r="N53" s="36">
         <v>6.1</v>
       </c>
       <c r="O53" s="2"/>
@@ -4679,7 +4671,7 @@
         <v>10.5</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T53" s="10" t="s">
         <v>27</v>
@@ -4694,7 +4686,7 @@
       <c r="X53" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y53" s="25" t="s">
+      <c r="Y53" s="23" t="s">
         <v>128</v>
       </c>
       <c r="Z53" s="2"/>
@@ -4704,41 +4696,41 @@
       <c r="AD53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="36">
         <v>38.1</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="36">
         <v>-119.06</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="36">
         <v>8.0</v>
       </c>
-      <c r="E54" s="37">
+      <c r="E54" s="36">
         <v>170.6</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="36">
         <v>-63.6</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="36">
         <v>470.5</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="36">
         <v>2.6</v>
       </c>
-      <c r="I54" s="37">
+      <c r="I54" s="36">
         <v>-79.7</v>
       </c>
-      <c r="J54" s="37">
+      <c r="J54" s="36">
         <v>18.1</v>
       </c>
-      <c r="K54" s="37">
+      <c r="K54" s="36">
         <v>243.0</v>
       </c>
       <c r="L54" s="2"/>
-      <c r="N54" s="37">
+      <c r="N54" s="36">
         <v>3.2</v>
       </c>
       <c r="O54" s="2"/>
@@ -4752,7 +4744,7 @@
         <v>10.5</v>
       </c>
       <c r="S54" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T54" s="10" t="s">
         <v>27</v>
@@ -4767,7 +4759,7 @@
       <c r="X54" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y54" s="25" t="s">
+      <c r="Y54" s="23" t="s">
         <v>135</v>
       </c>
       <c r="Z54" s="2"/>
@@ -4777,41 +4769,41 @@
       <c r="AD54" s="2"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="36">
         <v>38.18</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="36">
         <v>-118.74</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="36">
         <v>8.0</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E55" s="36">
         <v>186.1</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="36">
         <v>-59.9</v>
       </c>
-      <c r="G55" s="37">
+      <c r="G55" s="36">
         <v>197.3</v>
       </c>
-      <c r="H55" s="37">
+      <c r="H55" s="36">
         <v>4.0</v>
       </c>
-      <c r="I55" s="37">
+      <c r="I55" s="36">
         <v>-84.7</v>
       </c>
-      <c r="J55" s="37">
+      <c r="J55" s="36">
         <v>120.3</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="36">
         <v>119.2</v>
       </c>
       <c r="L55" s="2"/>
-      <c r="N55" s="37">
+      <c r="N55" s="36">
         <v>4.5</v>
       </c>
       <c r="O55" s="2"/>
@@ -4825,7 +4817,7 @@
         <v>10.5</v>
       </c>
       <c r="S55" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T55" s="10" t="s">
         <v>27</v>
@@ -4840,7 +4832,7 @@
       <c r="X55" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y55" s="25" t="s">
+      <c r="Y55" s="23" t="s">
         <v>135</v>
       </c>
       <c r="Z55" s="2"/>
@@ -4850,114 +4842,114 @@
       <c r="AD55" s="2"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56" s="37">
         <v>37.93</v>
       </c>
-      <c r="C56" s="38">
+      <c r="C56" s="37">
         <v>-120.04</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56" s="37">
         <v>7.0</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="37">
         <v>159.1</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="37">
         <v>-42.8</v>
       </c>
-      <c r="G56" s="38">
+      <c r="G56" s="37">
         <v>386.2</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H56" s="37">
         <v>3.1</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56" s="37">
         <v>-67.9</v>
       </c>
-      <c r="J56" s="38">
+      <c r="J56" s="37">
         <v>299.6</v>
       </c>
-      <c r="K56" s="38">
+      <c r="K56" s="37">
         <v>365.8</v>
       </c>
-      <c r="L56" s="39"/>
-      <c r="N56" s="38">
+      <c r="L56" s="38"/>
+      <c r="N56" s="37">
         <v>3.2</v>
       </c>
-      <c r="O56" s="39"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40">
+      <c r="O56" s="38"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39">
         <f t="shared" si="12"/>
         <v>9.46</v>
       </c>
-      <c r="R56" s="40">
+      <c r="R56" s="39">
         <f t="shared" si="13"/>
         <v>10.5</v>
       </c>
-      <c r="S56" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="T56" s="40" t="s">
+      <c r="S56" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T56" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U56" s="39"/>
-      <c r="V56" s="41" t="s">
+      <c r="U56" s="38"/>
+      <c r="V56" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="W56" s="42" t="s">
+      <c r="W56" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="X56" s="42" t="s">
+      <c r="X56" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="Y56" s="43" t="s">
+      <c r="Y56" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="38"/>
+      <c r="AD56" s="38"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="36">
         <v>38.36</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="36">
         <v>-120.01</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="36">
         <v>6.0</v>
       </c>
-      <c r="E57" s="37">
+      <c r="E57" s="36">
         <v>159.8</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="36">
         <v>-60.0</v>
       </c>
-      <c r="G57" s="37">
+      <c r="G57" s="36">
         <v>352.9</v>
       </c>
-      <c r="H57" s="37">
+      <c r="H57" s="36">
         <v>3.6</v>
       </c>
-      <c r="I57" s="37">
+      <c r="I57" s="36">
         <v>-74.3</v>
       </c>
-      <c r="J57" s="37">
+      <c r="J57" s="36">
         <v>345.7</v>
       </c>
-      <c r="K57" s="37">
+      <c r="K57" s="36">
         <v>196.2</v>
       </c>
       <c r="L57" s="2"/>
-      <c r="N57" s="37">
+      <c r="N57" s="36">
         <v>4.8</v>
       </c>
       <c r="O57" s="2"/>
@@ -4971,7 +4963,7 @@
         <v>10.5</v>
       </c>
       <c r="S57" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T57" s="10" t="s">
         <v>27</v>
@@ -4986,7 +4978,7 @@
       <c r="X57" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y57" s="25" t="s">
+      <c r="Y57" s="23" t="s">
         <v>140</v>
       </c>
       <c r="Z57" s="2"/>
@@ -4996,41 +4988,41 @@
       <c r="AD57" s="2"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="37">
+      <c r="B58" s="36">
         <v>38.26</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="36">
         <v>-120.3</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="36">
         <v>9.0</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="36">
         <v>158.0</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="36">
         <v>-64.7</v>
       </c>
-      <c r="G58" s="37">
+      <c r="G58" s="36">
         <v>58.1</v>
       </c>
-      <c r="H58" s="37">
+      <c r="H58" s="36">
         <v>6.8</v>
       </c>
-      <c r="I58" s="37">
+      <c r="I58" s="36">
         <v>-71.8</v>
       </c>
-      <c r="J58" s="37">
+      <c r="J58" s="36">
         <v>4.1</v>
       </c>
-      <c r="K58" s="37">
+      <c r="K58" s="36">
         <v>27.3</v>
       </c>
       <c r="L58" s="2"/>
-      <c r="N58" s="37">
+      <c r="N58" s="36">
         <v>10.0</v>
       </c>
       <c r="O58" s="2"/>
@@ -5044,7 +5036,7 @@
         <v>10.5</v>
       </c>
       <c r="S58" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T58" s="10" t="s">
         <v>27</v>
@@ -5059,7 +5051,7 @@
       <c r="X58" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y58" s="25" t="s">
+      <c r="Y58" s="23" t="s">
         <v>140</v>
       </c>
       <c r="Z58" s="2"/>
@@ -5069,41 +5061,41 @@
       <c r="AD58" s="2"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="37">
+      <c r="B59" s="36">
         <v>38.14</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="36">
         <v>-120.09</v>
       </c>
-      <c r="D59" s="37">
+      <c r="D59" s="36">
         <v>8.0</v>
       </c>
-      <c r="E59" s="37">
+      <c r="E59" s="36">
         <v>167.3</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="36">
         <v>-62.6</v>
       </c>
-      <c r="G59" s="37">
+      <c r="G59" s="36">
         <v>262.6</v>
       </c>
-      <c r="H59" s="37">
+      <c r="H59" s="36">
         <v>3.4</v>
       </c>
-      <c r="I59" s="37">
+      <c r="I59" s="36">
         <v>-78.9</v>
       </c>
-      <c r="J59" s="37">
+      <c r="J59" s="36">
         <v>5.1</v>
       </c>
-      <c r="K59" s="37">
+      <c r="K59" s="36">
         <v>133.3</v>
       </c>
       <c r="L59" s="2"/>
-      <c r="N59" s="37">
+      <c r="N59" s="36">
         <v>4.8</v>
       </c>
       <c r="O59" s="2"/>
@@ -5117,7 +5109,7 @@
         <v>10.5</v>
       </c>
       <c r="S59" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T59" s="10" t="s">
         <v>27</v>
@@ -5132,7 +5124,7 @@
       <c r="X59" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y59" s="25" t="s">
+      <c r="Y59" s="23" t="s">
         <v>140</v>
       </c>
       <c r="Z59" s="2"/>
@@ -5142,114 +5134,114 @@
       <c r="AD59" s="2"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="38">
+      <c r="B60" s="37">
         <v>38.32</v>
       </c>
-      <c r="C60" s="38">
+      <c r="C60" s="37">
         <v>-119.64</v>
       </c>
-      <c r="D60" s="38">
+      <c r="D60" s="37">
         <v>6.0</v>
       </c>
-      <c r="E60" s="38">
+      <c r="E60" s="37">
         <v>148.9</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="37">
         <v>-61.6</v>
       </c>
-      <c r="G60" s="38">
+      <c r="G60" s="37">
         <v>378.8</v>
       </c>
-      <c r="H60" s="38">
+      <c r="H60" s="37">
         <v>3.5</v>
       </c>
-      <c r="I60" s="38">
+      <c r="I60" s="37">
         <v>-66.1</v>
       </c>
-      <c r="J60" s="38">
+      <c r="J60" s="37">
         <v>351.1</v>
       </c>
-      <c r="K60" s="38">
+      <c r="K60" s="37">
         <v>199.0</v>
       </c>
-      <c r="L60" s="39"/>
-      <c r="N60" s="38">
+      <c r="L60" s="38"/>
+      <c r="N60" s="37">
         <v>4.8</v>
       </c>
-      <c r="O60" s="39"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="40">
+      <c r="O60" s="38"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="39">
         <f t="shared" ref="Q60:Q72" si="14">10.36-2*0.6</f>
         <v>9.16</v>
       </c>
-      <c r="R60" s="40">
+      <c r="R60" s="39">
         <f t="shared" ref="R60:R72" si="15">10.41+2*0.08</f>
         <v>10.57</v>
       </c>
-      <c r="S60" s="40" t="s">
+      <c r="S60" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="T60" s="40" t="s">
+      <c r="T60" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U60" s="39"/>
-      <c r="V60" s="41" t="s">
+      <c r="U60" s="38"/>
+      <c r="V60" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="W60" s="42" t="s">
+      <c r="W60" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="X60" s="42" t="s">
+      <c r="X60" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="Y60" s="43" t="s">
+      <c r="Y60" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="38"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="37">
+      <c r="B61" s="36">
         <v>38.32</v>
       </c>
-      <c r="C61" s="37">
+      <c r="C61" s="36">
         <v>-119.64</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D61" s="36">
         <v>6.0</v>
       </c>
-      <c r="E61" s="37">
+      <c r="E61" s="36">
         <v>134.3</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="36">
         <v>-68.0</v>
       </c>
-      <c r="G61" s="37">
+      <c r="G61" s="36">
         <v>110.3</v>
       </c>
-      <c r="H61" s="37">
+      <c r="H61" s="36">
         <v>6.4</v>
       </c>
-      <c r="I61" s="37">
+      <c r="I61" s="36">
         <v>-55.7</v>
       </c>
-      <c r="J61" s="37">
+      <c r="J61" s="36">
         <v>7.4</v>
       </c>
-      <c r="K61" s="37">
+      <c r="K61" s="36">
         <v>45.9</v>
       </c>
       <c r="L61" s="2"/>
-      <c r="N61" s="37">
+      <c r="N61" s="36">
         <v>10.0</v>
       </c>
       <c r="O61" s="2"/>
@@ -5278,7 +5270,7 @@
       <c r="X61" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y61" s="25" t="s">
+      <c r="Y61" s="23" t="s">
         <v>147</v>
       </c>
       <c r="Z61" s="2"/>
@@ -5288,41 +5280,41 @@
       <c r="AD61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="37">
+      <c r="B62" s="36">
         <v>38.32</v>
       </c>
-      <c r="C62" s="37">
+      <c r="C62" s="36">
         <v>-119.64</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D62" s="36">
         <v>6.0</v>
       </c>
-      <c r="E62" s="37">
+      <c r="E62" s="36">
         <v>6.4</v>
       </c>
-      <c r="F62" s="37">
+      <c r="F62" s="36">
         <v>61.4</v>
       </c>
-      <c r="G62" s="37">
+      <c r="G62" s="36">
         <v>233.0</v>
       </c>
-      <c r="H62" s="37">
+      <c r="H62" s="36">
         <v>4.4</v>
       </c>
-      <c r="I62" s="37">
+      <c r="I62" s="36">
         <v>83.5</v>
       </c>
-      <c r="J62" s="37">
+      <c r="J62" s="36">
         <v>287.5</v>
       </c>
-      <c r="K62" s="37">
+      <c r="K62" s="36">
         <v>123.3</v>
       </c>
       <c r="L62" s="2"/>
-      <c r="N62" s="37">
+      <c r="N62" s="36">
         <v>6.1</v>
       </c>
       <c r="O62" s="2"/>
@@ -5351,7 +5343,7 @@
       <c r="X62" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y62" s="25" t="s">
+      <c r="Y62" s="23" t="s">
         <v>149</v>
       </c>
       <c r="Z62" s="2"/>
@@ -5361,41 +5353,41 @@
       <c r="AD62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="36">
         <v>38.32</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="36">
         <v>-119.64</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="36">
         <v>6.0</v>
       </c>
-      <c r="E63" s="37">
+      <c r="E63" s="36">
         <v>357.7</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="36">
         <v>45.1</v>
       </c>
-      <c r="G63" s="37">
+      <c r="G63" s="36">
         <v>24.7</v>
       </c>
-      <c r="H63" s="37">
+      <c r="H63" s="36">
         <v>13.8</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="36">
         <v>78.1</v>
       </c>
-      <c r="J63" s="37">
+      <c r="J63" s="36">
         <v>70.6</v>
       </c>
-      <c r="K63" s="37">
+      <c r="K63" s="36">
         <v>22.0</v>
       </c>
       <c r="L63" s="2"/>
-      <c r="N63" s="37">
+      <c r="N63" s="36">
         <v>14.6</v>
       </c>
       <c r="O63" s="2"/>
@@ -5424,7 +5416,7 @@
       <c r="X63" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y63" s="25" t="s">
+      <c r="Y63" s="23" t="s">
         <v>151</v>
       </c>
       <c r="Z63" s="2"/>
@@ -5434,41 +5426,41 @@
       <c r="AD63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B64" s="36">
         <v>38.32</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="36">
         <v>-119.64</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="36">
         <v>6.0</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="36">
         <v>356.0</v>
       </c>
-      <c r="F64" s="37">
+      <c r="F64" s="36">
         <v>43.2</v>
       </c>
-      <c r="G64" s="37">
+      <c r="G64" s="36">
         <v>122.3</v>
       </c>
-      <c r="H64" s="37">
+      <c r="H64" s="36">
         <v>6.1</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="36">
         <v>76.4</v>
       </c>
-      <c r="J64" s="37">
+      <c r="J64" s="36">
         <v>76.0</v>
       </c>
-      <c r="K64" s="37">
+      <c r="K64" s="36">
         <v>114.5</v>
       </c>
       <c r="L64" s="2"/>
-      <c r="N64" s="37">
+      <c r="N64" s="36">
         <v>6.3</v>
       </c>
       <c r="O64" s="2"/>
@@ -5497,7 +5489,7 @@
       <c r="X64" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y64" s="25" t="s">
+      <c r="Y64" s="23" t="s">
         <v>151</v>
       </c>
       <c r="Z64" s="2"/>
@@ -5507,41 +5499,41 @@
       <c r="AD64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="37">
+      <c r="B65" s="36">
         <v>38.25</v>
       </c>
-      <c r="C65" s="37">
+      <c r="C65" s="36">
         <v>-120.3</v>
       </c>
-      <c r="D65" s="37">
+      <c r="D65" s="36">
         <v>8.0</v>
       </c>
-      <c r="E65" s="37">
+      <c r="E65" s="36">
         <v>162.1</v>
       </c>
-      <c r="F65" s="37">
+      <c r="F65" s="36">
         <v>-20.8</v>
       </c>
-      <c r="G65" s="37">
+      <c r="G65" s="36">
         <v>120.5</v>
       </c>
-      <c r="H65" s="37">
+      <c r="H65" s="36">
         <v>5.1</v>
       </c>
-      <c r="I65" s="37">
+      <c r="I65" s="36">
         <v>-58.2</v>
       </c>
-      <c r="J65" s="37">
+      <c r="J65" s="36">
         <v>274.6</v>
       </c>
-      <c r="K65" s="37">
+      <c r="K65" s="36">
         <v>171.1</v>
       </c>
       <c r="L65" s="2"/>
-      <c r="N65" s="37">
+      <c r="N65" s="36">
         <v>4.3</v>
       </c>
       <c r="O65" s="2"/>
@@ -5562,7 +5554,7 @@
       </c>
       <c r="U65" s="2"/>
       <c r="V65" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W65" s="13" t="s">
         <v>108</v>
@@ -5580,41 +5572,41 @@
       <c r="AD65" s="2"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="37">
+      <c r="B66" s="36">
         <v>38.13</v>
       </c>
-      <c r="C66" s="37">
+      <c r="C66" s="36">
         <v>-120.41</v>
       </c>
-      <c r="D66" s="37">
+      <c r="D66" s="36">
         <v>13.0</v>
       </c>
-      <c r="E66" s="37">
+      <c r="E66" s="36">
         <v>159.1</v>
       </c>
-      <c r="F66" s="37">
+      <c r="F66" s="36">
         <v>-27.0</v>
       </c>
-      <c r="G66" s="37">
+      <c r="G66" s="36">
         <v>144.3</v>
       </c>
-      <c r="H66" s="37">
+      <c r="H66" s="36">
         <v>3.5</v>
       </c>
-      <c r="I66" s="37">
+      <c r="I66" s="36">
         <v>-62.8</v>
       </c>
-      <c r="J66" s="37">
+      <c r="J66" s="36">
         <v>272.8</v>
       </c>
-      <c r="K66" s="37">
+      <c r="K66" s="36">
         <v>394.0</v>
       </c>
       <c r="L66" s="2"/>
-      <c r="N66" s="37">
+      <c r="N66" s="36">
         <v>2.3</v>
       </c>
       <c r="O66" s="2"/>
@@ -5635,7 +5627,7 @@
       </c>
       <c r="U66" s="2"/>
       <c r="V66" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W66" s="13" t="s">
         <v>108</v>
@@ -5653,41 +5645,41 @@
       <c r="AD66" s="2"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="37">
+      <c r="B67" s="36">
         <v>38.18</v>
       </c>
-      <c r="C67" s="37">
+      <c r="C67" s="36">
         <v>-120.36</v>
       </c>
-      <c r="D67" s="37">
+      <c r="D67" s="36">
         <v>6.0</v>
       </c>
-      <c r="E67" s="37">
+      <c r="E67" s="36">
         <v>177.9</v>
       </c>
-      <c r="F67" s="37">
+      <c r="F67" s="36">
         <v>-32.3</v>
       </c>
-      <c r="G67" s="37">
+      <c r="G67" s="36">
         <v>218.0</v>
       </c>
-      <c r="H67" s="37">
+      <c r="H67" s="36">
         <v>4.6</v>
       </c>
-      <c r="I67" s="37">
+      <c r="I67" s="36">
         <v>-59.8</v>
       </c>
-      <c r="J67" s="37">
+      <c r="J67" s="36">
         <v>283.1</v>
       </c>
-      <c r="K67" s="37">
+      <c r="K67" s="36">
         <v>188.3</v>
       </c>
       <c r="L67" s="2"/>
-      <c r="N67" s="37">
+      <c r="N67" s="36">
         <v>3.0</v>
       </c>
       <c r="O67" s="2"/>
@@ -5708,7 +5700,7 @@
       </c>
       <c r="U67" s="2"/>
       <c r="V67" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W67" s="13" t="s">
         <v>108</v>
@@ -5726,41 +5718,41 @@
       <c r="AD67" s="2"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="37">
+      <c r="B68" s="36">
         <v>38.35</v>
       </c>
-      <c r="C68" s="37">
+      <c r="C68" s="36">
         <v>-120.02</v>
       </c>
-      <c r="D68" s="37">
+      <c r="D68" s="36">
         <v>6.0</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="36">
         <v>159.3</v>
       </c>
-      <c r="F68" s="37">
+      <c r="F68" s="36">
         <v>-26.5</v>
       </c>
-      <c r="G68" s="37">
+      <c r="G68" s="36">
         <v>84.8</v>
       </c>
-      <c r="H68" s="37">
+      <c r="H68" s="36">
         <v>7.3</v>
       </c>
-      <c r="I68" s="37">
+      <c r="I68" s="36">
         <v>-69.3</v>
       </c>
-      <c r="J68" s="37">
+      <c r="J68" s="36">
         <v>245.3</v>
       </c>
-      <c r="K68" s="37">
+      <c r="K68" s="36">
         <v>260.1</v>
       </c>
       <c r="L68" s="2"/>
-      <c r="N68" s="37">
+      <c r="N68" s="36">
         <v>4.2</v>
       </c>
       <c r="O68" s="2"/>
@@ -5789,7 +5781,7 @@
       <c r="X68" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y68" s="25" t="s">
+      <c r="Y68" s="23" t="s">
         <v>149</v>
       </c>
       <c r="Z68" s="2"/>
@@ -5799,41 +5791,41 @@
       <c r="AD68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="37">
+      <c r="B69" s="36">
         <v>37.8</v>
       </c>
-      <c r="C69" s="37">
+      <c r="C69" s="36">
         <v>-120.65</v>
       </c>
-      <c r="D69" s="37">
+      <c r="D69" s="36">
         <v>11.0</v>
       </c>
-      <c r="E69" s="37">
+      <c r="E69" s="36">
         <v>165.0</v>
       </c>
-      <c r="F69" s="37">
+      <c r="F69" s="36">
         <v>-26.7</v>
       </c>
-      <c r="G69" s="37">
+      <c r="G69" s="36">
         <v>300.7</v>
       </c>
-      <c r="H69" s="37">
+      <c r="H69" s="36">
         <v>2.6</v>
       </c>
-      <c r="I69" s="37">
+      <c r="I69" s="36">
         <v>-59.6</v>
       </c>
-      <c r="J69" s="37">
+      <c r="J69" s="36">
         <v>282.4</v>
       </c>
-      <c r="K69" s="37">
+      <c r="K69" s="36">
         <v>111.4</v>
       </c>
       <c r="L69" s="2"/>
-      <c r="N69" s="37">
+      <c r="N69" s="36">
         <v>6.4</v>
       </c>
       <c r="O69" s="2"/>
@@ -5854,7 +5846,7 @@
       </c>
       <c r="U69" s="2"/>
       <c r="V69" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W69" s="13" t="s">
         <v>108</v>
@@ -5872,41 +5864,41 @@
       <c r="AD69" s="2"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B70" s="36">
         <v>37.966</v>
       </c>
-      <c r="C70" s="37">
+      <c r="C70" s="36">
         <v>-120.44</v>
       </c>
-      <c r="D70" s="37">
+      <c r="D70" s="36">
         <v>8.0</v>
       </c>
-      <c r="E70" s="37">
+      <c r="E70" s="36">
         <v>164.2</v>
       </c>
-      <c r="F70" s="37">
+      <c r="F70" s="36">
         <v>-28.2</v>
       </c>
-      <c r="G70" s="37">
+      <c r="G70" s="36">
         <v>1760.0</v>
       </c>
-      <c r="H70" s="37">
+      <c r="H70" s="36">
         <v>1.3</v>
       </c>
-      <c r="I70" s="37">
+      <c r="I70" s="36">
         <v>-63.1</v>
       </c>
-      <c r="J70" s="37">
+      <c r="J70" s="36">
         <v>275.1</v>
       </c>
-      <c r="K70" s="37">
+      <c r="K70" s="36">
         <v>2253.7</v>
       </c>
       <c r="L70" s="2"/>
-      <c r="N70" s="37">
+      <c r="N70" s="36">
         <v>1.3</v>
       </c>
       <c r="O70" s="2"/>
@@ -5927,7 +5919,7 @@
       </c>
       <c r="U70" s="2"/>
       <c r="V70" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W70" s="13" t="s">
         <v>108</v>
@@ -5945,41 +5937,41 @@
       <c r="AD70" s="2"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="36">
         <v>38.13</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="36">
         <v>-120.39</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="36">
         <v>13.0</v>
       </c>
-      <c r="E71" s="37">
+      <c r="E71" s="36">
         <v>162.5</v>
       </c>
-      <c r="F71" s="37">
+      <c r="F71" s="36">
         <v>-27.6</v>
       </c>
-      <c r="G71" s="37">
+      <c r="G71" s="36">
         <v>263.1</v>
       </c>
-      <c r="H71" s="37">
+      <c r="H71" s="36">
         <v>2.6</v>
       </c>
-      <c r="I71" s="37">
+      <c r="I71" s="36">
         <v>-61.9</v>
       </c>
-      <c r="J71" s="37">
+      <c r="J71" s="36">
         <v>277.7</v>
       </c>
-      <c r="K71" s="37">
+      <c r="K71" s="36">
         <v>340.1</v>
       </c>
       <c r="L71" s="2"/>
-      <c r="N71" s="37">
+      <c r="N71" s="36">
         <v>2.4</v>
       </c>
       <c r="O71" s="2"/>
@@ -6000,7 +5992,7 @@
       </c>
       <c r="U71" s="2"/>
       <c r="V71" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W71" s="13" t="s">
         <v>108</v>
@@ -6018,41 +6010,41 @@
       <c r="AD71" s="2"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="37">
+      <c r="B72" s="36">
         <v>38.3</v>
       </c>
-      <c r="C72" s="37">
+      <c r="C72" s="36">
         <v>-120.125</v>
       </c>
-      <c r="D72" s="37">
+      <c r="D72" s="36">
         <v>11.0</v>
       </c>
-      <c r="E72" s="37">
+      <c r="E72" s="36">
         <v>162.7</v>
       </c>
-      <c r="F72" s="37">
+      <c r="F72" s="36">
         <v>-26.4</v>
       </c>
-      <c r="G72" s="37">
+      <c r="G72" s="36">
         <v>60.4</v>
       </c>
-      <c r="H72" s="37">
+      <c r="H72" s="36">
         <v>6.0</v>
       </c>
-      <c r="I72" s="37">
+      <c r="I72" s="36">
         <v>-61.2</v>
       </c>
-      <c r="J72" s="37">
+      <c r="J72" s="36">
         <v>276.7</v>
       </c>
-      <c r="K72" s="37">
+      <c r="K72" s="36">
         <v>79.5</v>
       </c>
       <c r="L72" s="2"/>
-      <c r="N72" s="37">
+      <c r="N72" s="36">
         <v>5.6</v>
       </c>
       <c r="O72" s="2"/>
@@ -6081,7 +6073,7 @@
       <c r="X72" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y72" s="25" t="s">
+      <c r="Y72" s="23" t="s">
         <v>162</v>
       </c>
       <c r="Z72" s="2"/>
@@ -6091,16 +6083,16 @@
       <c r="AD72" s="2"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="37">
+      <c r="B73" s="36">
         <v>38.418</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="36">
         <v>-119.368</v>
       </c>
-      <c r="D73" s="25">
+      <c r="D73" s="23">
         <v>2.0</v>
       </c>
       <c r="E73" s="13">
@@ -6112,32 +6104,32 @@
       <c r="G73" s="13">
         <v>285.4</v>
       </c>
-      <c r="H73" s="45">
+      <c r="H73" s="44">
         <v>10.4</v>
       </c>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
       <c r="L73" s="2"/>
       <c r="O73" s="10">
         <f>9.34</f>
         <v>9.34</v>
       </c>
-      <c r="P73" s="21">
+      <c r="P73" s="30">
         <f>0.04*2</f>
         <v>0.08</v>
       </c>
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
       <c r="S73" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T73" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U73" s="10"/>
       <c r="V73" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W73" s="13" t="s">
         <v>108</v>
@@ -6145,7 +6137,7 @@
       <c r="X73" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y73" s="25" t="s">
+      <c r="Y73" s="23" t="s">
         <v>164</v>
       </c>
       <c r="Z73" s="2"/>
@@ -6155,16 +6147,16 @@
       <c r="AD73" s="2"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="37">
+      <c r="B74" s="36">
         <v>38.404</v>
       </c>
-      <c r="C74" s="37">
+      <c r="C74" s="36">
         <v>-119.401</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="23">
         <v>4.0</v>
       </c>
       <c r="E74" s="13">
@@ -6176,14 +6168,14 @@
       <c r="G74" s="13">
         <v>273.6</v>
       </c>
-      <c r="H74" s="46">
+      <c r="H74" s="45">
         <v>7.2</v>
       </c>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
       <c r="L74" s="2"/>
-      <c r="O74" s="21">
+      <c r="O74" s="30">
         <v>9.4</v>
       </c>
       <c r="P74" s="10">
@@ -6193,14 +6185,14 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="2"/>
       <c r="S74" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="T74" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U74" s="10"/>
       <c r="V74" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W74" s="13" t="s">
         <v>108</v>
@@ -6208,7 +6200,7 @@
       <c r="X74" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y74" s="25" t="s">
+      <c r="Y74" s="23" t="s">
         <v>166</v>
       </c>
       <c r="Z74" s="2"/>
@@ -6218,35 +6210,35 @@
       <c r="AD74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="36">
         <v>38.37</v>
       </c>
-      <c r="C75" s="37">
+      <c r="C75" s="36">
         <v>-119.78</v>
       </c>
-      <c r="D75" s="25">
+      <c r="D75" s="23">
         <v>9.0</v>
       </c>
       <c r="E75" s="13">
         <v>159.9</v>
       </c>
-      <c r="F75" s="25">
+      <c r="F75" s="23">
         <v>-62.8</v>
       </c>
       <c r="G75" s="13">
         <v>470.5</v>
       </c>
-      <c r="H75" s="45">
+      <c r="H75" s="44">
         <v>2.6</v>
       </c>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
       <c r="L75" s="2"/>
-      <c r="O75" s="21"/>
+      <c r="O75" s="30"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="10">
         <f>9.54-0.04*2</f>
@@ -6257,14 +6249,14 @@
         <v>10.5</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T75" s="10" t="s">
         <v>27</v>
       </c>
       <c r="U75" s="10"/>
       <c r="V75" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W75" s="13" t="s">
         <v>108</v>
@@ -6272,7 +6264,7 @@
       <c r="X75" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Y75" s="25" t="s">
+      <c r="Y75" s="23" t="s">
         <v>168</v>
       </c>
       <c r="Z75" s="2"/>
